--- a/仕様書等/u22-2018-entrysheet.xlsx
+++ b/仕様書等/u22-2018-entrysheet.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miyazakikazuki/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miyazaki\Documents\GitHub\test\仕様書等\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7A54FA44-13BC-4988-AB89-6583470F83AA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="11120" yWindow="0" windowWidth="17680" windowHeight="18000"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="11115" yWindow="0" windowWidth="17685" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="応募用紙" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">応募用紙!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>swako</author>
   </authors>
   <commentList>
-    <comment ref="O7" authorId="0">
+    <comment ref="O7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2075,11 +2076,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4251,26 +4252,957 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="120" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -4281,34 +5213,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4326,10 +5237,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4352,912 +5259,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="120" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="123" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -5306,7 +5307,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5397,7 +5398,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5444,6 +5445,78 @@
             </a:rPr>
             <a:t>事務局使用欄</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="楕円 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6FF4A7-FB91-451F-9A07-F2131848FCC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4671060" y="4312920"/>
+          <a:ext cx="236220" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5738,157 +5811,157 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R201"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A87" zoomScale="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15:L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10" style="106" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" style="43" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="43" customWidth="1"/>
-    <col min="4" max="4" width="2.6640625" style="43" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="43" customWidth="1"/>
-    <col min="6" max="6" width="2.6640625" style="43" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" style="43" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="43" customWidth="1"/>
+    <col min="2" max="2" width="3.125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="43" customWidth="1"/>
+    <col min="4" max="4" width="2.625" style="43" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="43" customWidth="1"/>
+    <col min="6" max="6" width="2.625" style="43" customWidth="1"/>
+    <col min="7" max="7" width="6.375" style="43" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="43" customWidth="1"/>
     <col min="9" max="9" width="2.5" style="43" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="43" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="43" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="43" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="43" customWidth="1"/>
     <col min="12" max="12" width="10.5" style="43" customWidth="1"/>
-    <col min="13" max="13" width="7.83203125" style="43" customWidth="1"/>
-    <col min="14" max="14" width="21.1640625" style="43" customWidth="1"/>
-    <col min="15" max="15" width="21.6640625" style="43" customWidth="1"/>
-    <col min="16" max="16" width="6.1640625" style="43" customWidth="1"/>
+    <col min="13" max="13" width="7.875" style="43" customWidth="1"/>
+    <col min="14" max="14" width="21.125" style="43" customWidth="1"/>
+    <col min="15" max="15" width="21.625" style="43" customWidth="1"/>
+    <col min="16" max="16" width="6.125" style="43" customWidth="1"/>
     <col min="17" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="294" t="s">
+    <row r="1" spans="1:18" ht="42" customHeight="1">
+      <c r="A1" s="310" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="294"/>
-      <c r="F1" s="294"/>
-      <c r="G1" s="294"/>
-      <c r="H1" s="294"/>
-      <c r="I1" s="294"/>
-      <c r="J1" s="294"/>
-      <c r="K1" s="294"/>
-      <c r="L1" s="294"/>
+      <c r="B1" s="310"/>
+      <c r="C1" s="310"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="310"/>
+      <c r="F1" s="310"/>
+      <c r="G1" s="310"/>
+      <c r="H1" s="310"/>
+      <c r="I1" s="310"/>
+      <c r="J1" s="310"/>
+      <c r="K1" s="310"/>
+      <c r="L1" s="310"/>
       <c r="M1" s="41"/>
       <c r="N1" s="41"/>
       <c r="O1" s="42"/>
     </row>
-    <row r="2" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="300" t="s">
+    <row r="2" spans="1:18" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A2" s="314" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="301"/>
-      <c r="C2" s="301"/>
-      <c r="D2" s="301"/>
-      <c r="E2" s="301"/>
-      <c r="F2" s="301"/>
-      <c r="G2" s="301"/>
-      <c r="H2" s="301"/>
-      <c r="I2" s="301"/>
-      <c r="J2" s="301"/>
-      <c r="K2" s="301"/>
-      <c r="L2" s="301"/>
-      <c r="M2" s="301"/>
-      <c r="N2" s="301"/>
-      <c r="O2" s="301"/>
-    </row>
-    <row r="3" spans="1:18" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="135" t="s">
+      <c r="B2" s="315"/>
+      <c r="C2" s="315"/>
+      <c r="D2" s="315"/>
+      <c r="E2" s="315"/>
+      <c r="F2" s="315"/>
+      <c r="G2" s="315"/>
+      <c r="H2" s="315"/>
+      <c r="I2" s="315"/>
+      <c r="J2" s="315"/>
+      <c r="K2" s="315"/>
+      <c r="L2" s="315"/>
+      <c r="M2" s="315"/>
+      <c r="N2" s="315"/>
+      <c r="O2" s="315"/>
+    </row>
+    <row r="3" spans="1:18" ht="27" customHeight="1" thickTop="1">
+      <c r="A3" s="166" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="281" t="s">
+      <c r="B3" s="297" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="282"/>
-      <c r="D3" s="285" t="s">
+      <c r="C3" s="298"/>
+      <c r="D3" s="301" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="286"/>
-      <c r="F3" s="286"/>
-      <c r="G3" s="286"/>
-      <c r="H3" s="286"/>
-      <c r="I3" s="286"/>
-      <c r="J3" s="287"/>
-      <c r="K3" s="275" t="s">
+      <c r="E3" s="302"/>
+      <c r="F3" s="302"/>
+      <c r="G3" s="302"/>
+      <c r="H3" s="302"/>
+      <c r="I3" s="302"/>
+      <c r="J3" s="303"/>
+      <c r="K3" s="291" t="s">
         <v>253</v>
       </c>
-      <c r="L3" s="276"/>
-      <c r="M3" s="276"/>
-      <c r="N3" s="276"/>
-      <c r="O3" s="277"/>
-    </row>
-    <row r="4" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="151"/>
-      <c r="B4" s="283"/>
-      <c r="C4" s="284"/>
-      <c r="D4" s="288" t="s">
+      <c r="L3" s="292"/>
+      <c r="M3" s="292"/>
+      <c r="N3" s="292"/>
+      <c r="O3" s="293"/>
+    </row>
+    <row r="4" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A4" s="168"/>
+      <c r="B4" s="299"/>
+      <c r="C4" s="300"/>
+      <c r="D4" s="304" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289"/>
-      <c r="H4" s="289"/>
-      <c r="I4" s="289"/>
-      <c r="J4" s="290"/>
-      <c r="K4" s="278" t="s">
+      <c r="E4" s="305"/>
+      <c r="F4" s="305"/>
+      <c r="G4" s="305"/>
+      <c r="H4" s="305"/>
+      <c r="I4" s="305"/>
+      <c r="J4" s="306"/>
+      <c r="K4" s="294" t="s">
         <v>254</v>
       </c>
-      <c r="L4" s="279"/>
-      <c r="M4" s="279"/>
-      <c r="N4" s="279"/>
-      <c r="O4" s="280"/>
-    </row>
-    <row r="5" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="291" t="s">
+      <c r="L4" s="295"/>
+      <c r="M4" s="295"/>
+      <c r="N4" s="295"/>
+      <c r="O4" s="296"/>
+    </row>
+    <row r="5" spans="1:18" ht="24.75" customHeight="1">
+      <c r="A5" s="307" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="299" t="s">
+      <c r="B5" s="313" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="273"/>
-      <c r="D5" s="273"/>
-      <c r="E5" s="273"/>
-      <c r="F5" s="273"/>
-      <c r="G5" s="273"/>
-      <c r="H5" s="273"/>
-      <c r="I5" s="274"/>
-      <c r="J5" s="272" t="s">
+      <c r="C5" s="271"/>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="290"/>
+      <c r="J5" s="270" t="s">
         <v>184</v>
       </c>
-      <c r="K5" s="273"/>
-      <c r="L5" s="274"/>
-      <c r="M5" s="272" t="s">
+      <c r="K5" s="271"/>
+      <c r="L5" s="290"/>
+      <c r="M5" s="270" t="s">
         <v>157</v>
       </c>
-      <c r="N5" s="273"/>
-      <c r="O5" s="317"/>
+      <c r="N5" s="271"/>
+      <c r="O5" s="272"/>
       <c r="R5" s="44"/>
     </row>
-    <row r="6" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="292"/>
-      <c r="B6" s="307" t="s">
+    <row r="6" spans="1:18" ht="12.75" customHeight="1">
+      <c r="A6" s="308"/>
+      <c r="B6" s="318" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="306"/>
-      <c r="D6" s="306"/>
-      <c r="E6" s="306"/>
+      <c r="C6" s="317"/>
+      <c r="D6" s="317"/>
+      <c r="E6" s="317"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="305" t="s">
+      <c r="G6" s="316" t="s">
         <v>153</v>
       </c>
-      <c r="H6" s="306"/>
+      <c r="H6" s="317"/>
       <c r="I6" s="2"/>
       <c r="J6" s="45"/>
       <c r="K6" s="46"/>
@@ -5901,29 +5974,29 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="292"/>
-      <c r="B7" s="309" t="s">
+    <row r="7" spans="1:18" ht="24" customHeight="1">
+      <c r="A7" s="308"/>
+      <c r="B7" s="319" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="303"/>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
+      <c r="C7" s="274"/>
+      <c r="D7" s="274"/>
+      <c r="E7" s="274"/>
       <c r="F7" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="308" t="s">
+      <c r="G7" s="281" t="s">
         <v>219</v>
       </c>
-      <c r="H7" s="308"/>
+      <c r="H7" s="281"/>
       <c r="I7" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="302" t="s">
+      <c r="J7" s="273" t="s">
         <v>220</v>
       </c>
-      <c r="K7" s="303"/>
-      <c r="L7" s="304"/>
+      <c r="K7" s="274"/>
+      <c r="L7" s="275"/>
       <c r="M7" s="48" t="s">
         <v>111</v>
       </c>
@@ -5935,29 +6008,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="292"/>
-      <c r="B8" s="295" t="s">
+    <row r="8" spans="1:18" ht="24" customHeight="1">
+      <c r="A8" s="308"/>
+      <c r="B8" s="276" t="s">
         <v>221</v>
       </c>
-      <c r="C8" s="296"/>
-      <c r="D8" s="296"/>
-      <c r="E8" s="296"/>
+      <c r="C8" s="277"/>
+      <c r="D8" s="277"/>
+      <c r="E8" s="277"/>
       <c r="F8" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="322" t="s">
+      <c r="G8" s="282" t="s">
         <v>222</v>
       </c>
-      <c r="H8" s="322"/>
+      <c r="H8" s="282"/>
       <c r="I8" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="302" t="s">
+      <c r="J8" s="273" t="s">
         <v>220</v>
       </c>
-      <c r="K8" s="303"/>
-      <c r="L8" s="304"/>
+      <c r="K8" s="274"/>
+      <c r="L8" s="275"/>
       <c r="M8" s="49" t="s">
         <v>79</v>
       </c>
@@ -5969,29 +6042,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="292"/>
-      <c r="B9" s="295" t="s">
+    <row r="9" spans="1:18" ht="24" customHeight="1">
+      <c r="A9" s="308"/>
+      <c r="B9" s="276" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="296"/>
-      <c r="D9" s="296"/>
-      <c r="E9" s="296"/>
+      <c r="C9" s="277"/>
+      <c r="D9" s="277"/>
+      <c r="E9" s="277"/>
       <c r="F9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="322" t="s">
+      <c r="G9" s="282" t="s">
         <v>223</v>
       </c>
-      <c r="H9" s="322"/>
+      <c r="H9" s="282"/>
       <c r="I9" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="302" t="s">
+      <c r="J9" s="273" t="s">
         <v>220</v>
       </c>
-      <c r="K9" s="303"/>
-      <c r="L9" s="304"/>
+      <c r="K9" s="274"/>
+      <c r="L9" s="275"/>
       <c r="M9" s="49" t="s">
         <v>79</v>
       </c>
@@ -6003,29 +6076,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="292"/>
-      <c r="B10" s="295" t="s">
+    <row r="10" spans="1:18" ht="24" customHeight="1">
+      <c r="A10" s="308"/>
+      <c r="B10" s="276" t="s">
         <v>224</v>
       </c>
-      <c r="C10" s="296"/>
-      <c r="D10" s="296"/>
-      <c r="E10" s="296"/>
+      <c r="C10" s="277"/>
+      <c r="D10" s="277"/>
+      <c r="E10" s="277"/>
       <c r="F10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="308" t="s">
+      <c r="G10" s="281" t="s">
         <v>225</v>
       </c>
-      <c r="H10" s="308"/>
+      <c r="H10" s="281"/>
       <c r="I10" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="302" t="s">
+      <c r="J10" s="273" t="s">
         <v>220</v>
       </c>
-      <c r="K10" s="303"/>
-      <c r="L10" s="304"/>
+      <c r="K10" s="274"/>
+      <c r="L10" s="275"/>
       <c r="M10" s="49" t="s">
         <v>79</v>
       </c>
@@ -6037,29 +6110,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="292"/>
-      <c r="B11" s="295" t="s">
+    <row r="11" spans="1:18" ht="24" customHeight="1">
+      <c r="A11" s="308"/>
+      <c r="B11" s="276" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="296"/>
-      <c r="D11" s="296"/>
-      <c r="E11" s="296"/>
+      <c r="C11" s="277"/>
+      <c r="D11" s="277"/>
+      <c r="E11" s="277"/>
       <c r="F11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="308" t="s">
+      <c r="G11" s="281" t="s">
         <v>226</v>
       </c>
-      <c r="H11" s="308"/>
+      <c r="H11" s="281"/>
       <c r="I11" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="302" t="s">
+      <c r="J11" s="273" t="s">
         <v>220</v>
       </c>
-      <c r="K11" s="303"/>
-      <c r="L11" s="304"/>
+      <c r="K11" s="274"/>
+      <c r="L11" s="275"/>
       <c r="M11" s="49" t="s">
         <v>79</v>
       </c>
@@ -6071,29 +6144,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="292"/>
-      <c r="B12" s="295" t="s">
+    <row r="12" spans="1:18" ht="24" customHeight="1">
+      <c r="A12" s="308"/>
+      <c r="B12" s="276" t="s">
         <v>228</v>
       </c>
-      <c r="C12" s="296"/>
-      <c r="D12" s="296"/>
-      <c r="E12" s="296"/>
+      <c r="C12" s="277"/>
+      <c r="D12" s="277"/>
+      <c r="E12" s="277"/>
       <c r="F12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="308" t="s">
+      <c r="G12" s="281" t="s">
         <v>229</v>
       </c>
-      <c r="H12" s="308"/>
+      <c r="H12" s="281"/>
       <c r="I12" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="302" t="s">
+      <c r="J12" s="273" t="s">
         <v>220</v>
       </c>
-      <c r="K12" s="303"/>
-      <c r="L12" s="304"/>
+      <c r="K12" s="274"/>
+      <c r="L12" s="275"/>
       <c r="M12" s="49" t="s">
         <v>79</v>
       </c>
@@ -6105,23 +6178,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="293"/>
-      <c r="B13" s="297"/>
-      <c r="C13" s="298"/>
-      <c r="D13" s="298"/>
-      <c r="E13" s="298"/>
+    <row r="13" spans="1:18" ht="24" customHeight="1" thickBot="1">
+      <c r="A13" s="309"/>
+      <c r="B13" s="311"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
       <c r="F13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="308"/>
-      <c r="H13" s="308"/>
+      <c r="G13" s="281"/>
+      <c r="H13" s="281"/>
       <c r="I13" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J13" s="310"/>
-      <c r="K13" s="311"/>
-      <c r="L13" s="312"/>
+      <c r="J13" s="320"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="322"/>
       <c r="M13" s="50" t="s">
         <v>79</v>
       </c>
@@ -6131,116 +6204,116 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="150" t="s">
+    <row r="14" spans="1:18" ht="24.75" customHeight="1">
+      <c r="A14" s="179" t="s">
         <v>174</v>
       </c>
-      <c r="B14" s="240" t="s">
+      <c r="B14" s="347" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="241"/>
-      <c r="D14" s="241"/>
-      <c r="E14" s="242"/>
-      <c r="F14" s="323" t="s">
+      <c r="C14" s="279"/>
+      <c r="D14" s="279"/>
+      <c r="E14" s="348"/>
+      <c r="F14" s="283" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="241"/>
-      <c r="H14" s="241"/>
-      <c r="I14" s="324"/>
-      <c r="J14" s="187" t="s">
+      <c r="G14" s="279"/>
+      <c r="H14" s="279"/>
+      <c r="I14" s="284"/>
+      <c r="J14" s="375" t="s">
         <v>158</v>
       </c>
-      <c r="K14" s="187"/>
-      <c r="L14" s="187"/>
-      <c r="M14" s="318" t="s">
+      <c r="K14" s="375"/>
+      <c r="L14" s="375"/>
+      <c r="M14" s="278" t="s">
         <v>175</v>
       </c>
-      <c r="N14" s="241"/>
-      <c r="O14" s="319"/>
-    </row>
-    <row r="15" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="136"/>
-      <c r="B15" s="234" t="s">
+      <c r="N14" s="279"/>
+      <c r="O14" s="280"/>
+    </row>
+    <row r="15" spans="1:18" ht="18" customHeight="1">
+      <c r="A15" s="167"/>
+      <c r="B15" s="341" t="s">
         <v>230</v>
       </c>
-      <c r="C15" s="235"/>
-      <c r="D15" s="235"/>
-      <c r="E15" s="236"/>
+      <c r="C15" s="342"/>
+      <c r="D15" s="342"/>
+      <c r="E15" s="343"/>
       <c r="F15" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="G15" s="257" t="s">
+      <c r="G15" s="359" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="257"/>
-      <c r="I15" s="258"/>
-      <c r="J15" s="243" t="s">
+      <c r="H15" s="359"/>
+      <c r="I15" s="360"/>
+      <c r="J15" s="349" t="s">
         <v>196</v>
       </c>
-      <c r="K15" s="244"/>
-      <c r="L15" s="245"/>
-      <c r="M15" s="223" t="s">
+      <c r="K15" s="350"/>
+      <c r="L15" s="351"/>
+      <c r="M15" s="331" t="s">
         <v>118</v>
       </c>
-      <c r="N15" s="224"/>
+      <c r="N15" s="332"/>
       <c r="O15" s="130"/>
     </row>
-    <row r="16" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="136"/>
-      <c r="B16" s="234"/>
-      <c r="C16" s="235"/>
-      <c r="D16" s="235"/>
-      <c r="E16" s="236"/>
+    <row r="16" spans="1:18" ht="18" customHeight="1">
+      <c r="A16" s="167"/>
+      <c r="B16" s="341"/>
+      <c r="C16" s="342"/>
+      <c r="D16" s="342"/>
+      <c r="E16" s="343"/>
       <c r="F16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="144" t="s">
+      <c r="G16" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="144"/>
-      <c r="I16" s="259"/>
-      <c r="J16" s="182" t="s">
+      <c r="H16" s="164"/>
+      <c r="I16" s="361"/>
+      <c r="J16" s="371" t="s">
         <v>232</v>
       </c>
-      <c r="K16" s="158"/>
-      <c r="L16" s="183"/>
-      <c r="M16" s="328" t="s">
+      <c r="K16" s="150"/>
+      <c r="L16" s="372"/>
+      <c r="M16" s="288" t="s">
         <v>133</v>
       </c>
-      <c r="N16" s="329"/>
+      <c r="N16" s="289"/>
       <c r="O16" s="13"/>
     </row>
-    <row r="17" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="136"/>
-      <c r="B17" s="234"/>
-      <c r="C17" s="235"/>
-      <c r="D17" s="235"/>
-      <c r="E17" s="236"/>
+    <row r="17" spans="1:17" ht="18" customHeight="1">
+      <c r="A17" s="167"/>
+      <c r="B17" s="341"/>
+      <c r="C17" s="342"/>
+      <c r="D17" s="342"/>
+      <c r="E17" s="343"/>
       <c r="F17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="144" t="s">
+      <c r="G17" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="144"/>
-      <c r="I17" s="259"/>
-      <c r="J17" s="182"/>
-      <c r="K17" s="158"/>
-      <c r="L17" s="183"/>
-      <c r="M17" s="231" t="s">
+      <c r="H17" s="164"/>
+      <c r="I17" s="361"/>
+      <c r="J17" s="371"/>
+      <c r="K17" s="150"/>
+      <c r="L17" s="372"/>
+      <c r="M17" s="338" t="s">
         <v>233</v>
       </c>
-      <c r="N17" s="232"/>
-      <c r="O17" s="233"/>
+      <c r="N17" s="339"/>
+      <c r="O17" s="340"/>
       <c r="P17" s="51"/>
       <c r="Q17" s="51"/>
     </row>
-    <row r="18" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="151"/>
-      <c r="B18" s="237"/>
-      <c r="C18" s="238"/>
-      <c r="D18" s="238"/>
-      <c r="E18" s="239"/>
+    <row r="18" spans="1:17" ht="18" customHeight="1" thickBot="1">
+      <c r="A18" s="168"/>
+      <c r="B18" s="344"/>
+      <c r="C18" s="345"/>
+      <c r="D18" s="345"/>
+      <c r="E18" s="346"/>
       <c r="F18" s="14" t="s">
         <v>28</v>
       </c>
@@ -6253,138 +6326,138 @@
       <c r="I18" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="J18" s="184"/>
-      <c r="K18" s="185"/>
-      <c r="L18" s="186"/>
+      <c r="J18" s="373"/>
+      <c r="K18" s="192"/>
+      <c r="L18" s="374"/>
       <c r="M18" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="N18" s="326">
+      <c r="N18" s="286">
         <v>9067452372</v>
       </c>
-      <c r="O18" s="327"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="150" t="s">
+      <c r="O18" s="287"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="179" t="s">
         <v>159</v>
       </c>
-      <c r="B19" s="179" t="s">
+      <c r="B19" s="219" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="180"/>
-      <c r="D19" s="180"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="180"/>
-      <c r="J19" s="180"/>
-      <c r="K19" s="180"/>
-      <c r="L19" s="180"/>
-      <c r="M19" s="180"/>
-      <c r="N19" s="180"/>
-      <c r="O19" s="181"/>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="136"/>
-      <c r="B20" s="146" t="s">
+      <c r="C19" s="369"/>
+      <c r="D19" s="369"/>
+      <c r="E19" s="369"/>
+      <c r="F19" s="369"/>
+      <c r="G19" s="369"/>
+      <c r="H19" s="369"/>
+      <c r="I19" s="369"/>
+      <c r="J19" s="369"/>
+      <c r="K19" s="369"/>
+      <c r="L19" s="369"/>
+      <c r="M19" s="369"/>
+      <c r="N19" s="369"/>
+      <c r="O19" s="370"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A20" s="167"/>
+      <c r="B20" s="366" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="147"/>
-      <c r="M20" s="147"/>
-      <c r="N20" s="147"/>
-      <c r="O20" s="148"/>
-    </row>
-    <row r="21" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="136"/>
+      <c r="C20" s="367"/>
+      <c r="D20" s="367"/>
+      <c r="E20" s="367"/>
+      <c r="F20" s="367"/>
+      <c r="G20" s="367"/>
+      <c r="H20" s="367"/>
+      <c r="I20" s="367"/>
+      <c r="J20" s="367"/>
+      <c r="K20" s="367"/>
+      <c r="L20" s="367"/>
+      <c r="M20" s="367"/>
+      <c r="N20" s="367"/>
+      <c r="O20" s="368"/>
+    </row>
+    <row r="21" spans="1:17" ht="20.25" customHeight="1">
+      <c r="A21" s="167"/>
       <c r="B21" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="144" t="s">
+      <c r="D21" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="144"/>
-      <c r="F21" s="249"/>
-      <c r="G21" s="249"/>
-      <c r="H21" s="249"/>
-      <c r="I21" s="249"/>
-      <c r="J21" s="249"/>
-      <c r="K21" s="249"/>
-      <c r="L21" s="249"/>
-      <c r="M21" s="249"/>
-      <c r="N21" s="249"/>
-      <c r="O21" s="250"/>
-    </row>
-    <row r="22" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="136"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="355"/>
+      <c r="G21" s="355"/>
+      <c r="H21" s="355"/>
+      <c r="I21" s="355"/>
+      <c r="J21" s="355"/>
+      <c r="K21" s="355"/>
+      <c r="L21" s="355"/>
+      <c r="M21" s="355"/>
+      <c r="N21" s="355"/>
+      <c r="O21" s="356"/>
+    </row>
+    <row r="22" spans="1:17" ht="20.25" customHeight="1">
+      <c r="A22" s="167"/>
       <c r="B22" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="330" t="s">
+      <c r="C22" s="236" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="330"/>
-      <c r="E22" s="330"/>
+      <c r="D22" s="236"/>
+      <c r="E22" s="236"/>
       <c r="F22" s="55" t="s">
         <v>190</v>
       </c>
       <c r="G22" s="56"/>
-      <c r="H22" s="252"/>
-      <c r="I22" s="253"/>
-      <c r="J22" s="253"/>
-      <c r="K22" s="253"/>
+      <c r="H22" s="246"/>
+      <c r="I22" s="245"/>
+      <c r="J22" s="245"/>
+      <c r="K22" s="245"/>
       <c r="L22" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="138"/>
-      <c r="N22" s="138"/>
+      <c r="M22" s="158"/>
+      <c r="N22" s="158"/>
       <c r="O22" s="58" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="136"/>
+    <row r="23" spans="1:17" ht="20.25" customHeight="1">
+      <c r="A23" s="167"/>
       <c r="B23" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C23" s="330" t="s">
+      <c r="C23" s="236" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="330"/>
-      <c r="E23" s="330"/>
-      <c r="F23" s="254" t="s">
+      <c r="D23" s="236"/>
+      <c r="E23" s="236"/>
+      <c r="F23" s="242" t="s">
         <v>191</v>
       </c>
-      <c r="G23" s="255"/>
-      <c r="H23" s="428" t="s">
+      <c r="G23" s="243"/>
+      <c r="H23" s="244" t="s">
         <v>247</v>
       </c>
-      <c r="I23" s="253"/>
-      <c r="J23" s="253"/>
-      <c r="K23" s="253"/>
+      <c r="I23" s="245"/>
+      <c r="J23" s="245"/>
+      <c r="K23" s="245"/>
       <c r="L23" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="138"/>
-      <c r="N23" s="138"/>
+      <c r="M23" s="158"/>
+      <c r="N23" s="158"/>
       <c r="O23" s="58" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="136"/>
+    <row r="24" spans="1:17" ht="20.25" customHeight="1">
+      <c r="A24" s="167"/>
       <c r="B24" s="16" t="s">
         <v>1</v>
       </c>
@@ -6394,41 +6467,41 @@
       <c r="D24" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="139"/>
-      <c r="J24" s="139"/>
-      <c r="K24" s="139"/>
-      <c r="L24" s="139"/>
-      <c r="M24" s="139"/>
-      <c r="N24" s="139"/>
+      <c r="E24" s="412"/>
+      <c r="F24" s="412"/>
+      <c r="G24" s="412"/>
+      <c r="H24" s="412"/>
+      <c r="I24" s="412"/>
+      <c r="J24" s="412"/>
+      <c r="K24" s="412"/>
+      <c r="L24" s="412"/>
+      <c r="M24" s="412"/>
+      <c r="N24" s="412"/>
       <c r="O24" s="61" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="136"/>
-      <c r="B25" s="331" t="s">
+    <row r="25" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A25" s="167"/>
+      <c r="B25" s="237" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="332"/>
-      <c r="D25" s="332"/>
-      <c r="E25" s="332"/>
-      <c r="F25" s="332"/>
-      <c r="G25" s="332"/>
-      <c r="H25" s="332"/>
-      <c r="I25" s="332"/>
-      <c r="J25" s="332"/>
-      <c r="K25" s="332"/>
-      <c r="L25" s="332"/>
-      <c r="M25" s="332"/>
-      <c r="N25" s="332"/>
-      <c r="O25" s="333"/>
-    </row>
-    <row r="26" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="136"/>
+      <c r="C25" s="238"/>
+      <c r="D25" s="238"/>
+      <c r="E25" s="238"/>
+      <c r="F25" s="238"/>
+      <c r="G25" s="238"/>
+      <c r="H25" s="238"/>
+      <c r="I25" s="238"/>
+      <c r="J25" s="238"/>
+      <c r="K25" s="238"/>
+      <c r="L25" s="238"/>
+      <c r="M25" s="238"/>
+      <c r="N25" s="238"/>
+      <c r="O25" s="239"/>
+    </row>
+    <row r="26" spans="1:17" ht="20.25" customHeight="1">
+      <c r="A26" s="167"/>
       <c r="B26" s="15" t="s">
         <v>1</v>
       </c>
@@ -6437,144 +6510,144 @@
       </c>
       <c r="D26" s="62"/>
       <c r="E26" s="63"/>
-      <c r="F26" s="325"/>
-      <c r="G26" s="325"/>
-      <c r="H26" s="325"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="145"/>
-      <c r="K26" s="145"/>
+      <c r="F26" s="285"/>
+      <c r="G26" s="285"/>
+      <c r="H26" s="285"/>
+      <c r="I26" s="416"/>
+      <c r="J26" s="416"/>
+      <c r="K26" s="416"/>
       <c r="L26" s="63"/>
-      <c r="M26" s="137"/>
-      <c r="N26" s="137"/>
+      <c r="M26" s="411"/>
+      <c r="N26" s="411"/>
       <c r="O26" s="64"/>
     </row>
-    <row r="27" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="136"/>
+    <row r="27" spans="1:17" ht="20.25" customHeight="1">
+      <c r="A27" s="167"/>
       <c r="B27" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="D27" s="228" t="s">
+      <c r="D27" s="241" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="228"/>
-      <c r="F27" s="228"/>
-      <c r="G27" s="335"/>
-      <c r="H27" s="336"/>
-      <c r="I27" s="337"/>
-      <c r="J27" s="337"/>
-      <c r="K27" s="337"/>
+      <c r="E27" s="241"/>
+      <c r="F27" s="241"/>
+      <c r="G27" s="247"/>
+      <c r="H27" s="248"/>
+      <c r="I27" s="249"/>
+      <c r="J27" s="249"/>
+      <c r="K27" s="249"/>
       <c r="L27" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="138"/>
-      <c r="N27" s="138"/>
+      <c r="M27" s="158"/>
+      <c r="N27" s="158"/>
       <c r="O27" s="65" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="136"/>
-      <c r="B28" s="146" t="s">
+    <row r="28" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A28" s="167"/>
+      <c r="B28" s="366" t="s">
         <v>161</v>
       </c>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="147"/>
-      <c r="K28" s="147"/>
-      <c r="L28" s="147"/>
-      <c r="M28" s="147"/>
-      <c r="N28" s="147"/>
-      <c r="O28" s="148"/>
-    </row>
-    <row r="29" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="136"/>
+      <c r="C28" s="367"/>
+      <c r="D28" s="367"/>
+      <c r="E28" s="367"/>
+      <c r="F28" s="367"/>
+      <c r="G28" s="367"/>
+      <c r="H28" s="367"/>
+      <c r="I28" s="367"/>
+      <c r="J28" s="367"/>
+      <c r="K28" s="367"/>
+      <c r="L28" s="367"/>
+      <c r="M28" s="367"/>
+      <c r="N28" s="367"/>
+      <c r="O28" s="368"/>
+    </row>
+    <row r="29" spans="1:17" ht="20.25" customHeight="1">
+      <c r="A29" s="167"/>
       <c r="B29" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="144" t="s">
+      <c r="D29" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="144"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-      <c r="N29" s="149"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="417"/>
+      <c r="G29" s="417"/>
+      <c r="H29" s="417"/>
+      <c r="I29" s="417"/>
+      <c r="J29" s="417"/>
+      <c r="K29" s="417"/>
+      <c r="L29" s="417"/>
+      <c r="M29" s="417"/>
+      <c r="N29" s="417"/>
       <c r="O29" s="65"/>
     </row>
-    <row r="30" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="136"/>
+    <row r="30" spans="1:17" ht="20.25" customHeight="1">
+      <c r="A30" s="167"/>
       <c r="B30" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="144" t="s">
+      <c r="C30" s="164" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
       <c r="F30" s="55" t="s">
         <v>190</v>
       </c>
       <c r="G30" s="56"/>
-      <c r="H30" s="252"/>
-      <c r="I30" s="253"/>
-      <c r="J30" s="253"/>
-      <c r="K30" s="253"/>
+      <c r="H30" s="246"/>
+      <c r="I30" s="245"/>
+      <c r="J30" s="245"/>
+      <c r="K30" s="245"/>
       <c r="L30" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="M30" s="138"/>
-      <c r="N30" s="138"/>
+      <c r="M30" s="158"/>
+      <c r="N30" s="158"/>
       <c r="O30" s="58" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="136"/>
+    <row r="31" spans="1:17" ht="20.25" customHeight="1">
+      <c r="A31" s="167"/>
       <c r="B31" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="144" t="s">
+      <c r="C31" s="164" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="254" t="s">
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="242" t="s">
         <v>191</v>
       </c>
-      <c r="G31" s="255"/>
-      <c r="H31" s="256" t="s">
+      <c r="G31" s="243"/>
+      <c r="H31" s="358" t="s">
         <v>81</v>
       </c>
-      <c r="I31" s="253"/>
-      <c r="J31" s="253"/>
-      <c r="K31" s="253"/>
+      <c r="I31" s="245"/>
+      <c r="J31" s="245"/>
+      <c r="K31" s="245"/>
       <c r="L31" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="M31" s="138"/>
-      <c r="N31" s="138"/>
+      <c r="M31" s="158"/>
+      <c r="N31" s="158"/>
       <c r="O31" s="58" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="136"/>
+    <row r="32" spans="1:17" ht="20.25" customHeight="1">
+      <c r="A32" s="167"/>
       <c r="B32" s="15" t="s">
         <v>1</v>
       </c>
@@ -6584,30 +6657,30 @@
       <c r="D32" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="251"/>
-      <c r="F32" s="251"/>
-      <c r="G32" s="251"/>
-      <c r="H32" s="251"/>
-      <c r="I32" s="251"/>
-      <c r="J32" s="251"/>
-      <c r="K32" s="251"/>
-      <c r="L32" s="251"/>
-      <c r="M32" s="251"/>
-      <c r="N32" s="251"/>
+      <c r="E32" s="357"/>
+      <c r="F32" s="357"/>
+      <c r="G32" s="357"/>
+      <c r="H32" s="357"/>
+      <c r="I32" s="357"/>
+      <c r="J32" s="357"/>
+      <c r="K32" s="357"/>
+      <c r="L32" s="357"/>
+      <c r="M32" s="357"/>
+      <c r="N32" s="357"/>
       <c r="O32" s="61" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="51" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="136"/>
+    <row r="33" spans="1:16" s="51" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A33" s="167"/>
       <c r="B33" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="178" t="s">
+      <c r="C33" s="365" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="178"/>
-      <c r="E33" s="178"/>
+      <c r="D33" s="365"/>
+      <c r="E33" s="365"/>
       <c r="F33" s="33" t="s">
         <v>28</v>
       </c>
@@ -6621,43 +6694,43 @@
       <c r="J33" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="K33" s="141" t="s">
+      <c r="K33" s="413" t="s">
         <v>197</v>
       </c>
-      <c r="L33" s="141"/>
-      <c r="M33" s="141"/>
-      <c r="N33" s="141"/>
+      <c r="L33" s="413"/>
+      <c r="M33" s="413"/>
+      <c r="N33" s="413"/>
       <c r="O33" s="71" t="s">
         <v>73</v>
       </c>
       <c r="P33" s="72"/>
     </row>
-    <row r="34" spans="1:16" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="36" customHeight="1" thickBot="1">
       <c r="A34" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="262" t="s">
+      <c r="B34" s="364" t="s">
         <v>235</v>
       </c>
-      <c r="C34" s="260"/>
-      <c r="D34" s="260"/>
-      <c r="E34" s="260"/>
-      <c r="F34" s="260"/>
-      <c r="G34" s="260"/>
-      <c r="H34" s="260"/>
-      <c r="I34" s="260"/>
-      <c r="J34" s="260"/>
-      <c r="K34" s="260"/>
+      <c r="C34" s="362"/>
+      <c r="D34" s="362"/>
+      <c r="E34" s="362"/>
+      <c r="F34" s="362"/>
+      <c r="G34" s="362"/>
+      <c r="H34" s="362"/>
+      <c r="I34" s="362"/>
+      <c r="J34" s="362"/>
+      <c r="K34" s="362"/>
       <c r="L34" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="M34" s="260"/>
-      <c r="N34" s="260"/>
-      <c r="O34" s="261"/>
+      <c r="M34" s="362"/>
+      <c r="N34" s="362"/>
+      <c r="O34" s="363"/>
       <c r="P34" s="75"/>
     </row>
-    <row r="35" spans="1:16" ht="20.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="150" t="s">
+    <row r="35" spans="1:16" ht="20.85" customHeight="1">
+      <c r="A35" s="179" t="s">
         <v>163</v>
       </c>
       <c r="B35" s="16" t="s">
@@ -6668,21 +6741,21 @@
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
-      <c r="F35" s="341" t="s">
+      <c r="F35" s="253" t="s">
         <v>101</v>
       </c>
-      <c r="G35" s="341"/>
-      <c r="H35" s="342"/>
-      <c r="I35" s="342"/>
-      <c r="J35" s="342"/>
-      <c r="K35" s="342"/>
-      <c r="L35" s="342"/>
-      <c r="M35" s="342"/>
-      <c r="N35" s="342"/>
-      <c r="O35" s="343"/>
-    </row>
-    <row r="36" spans="1:16" ht="20.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="136"/>
+      <c r="G35" s="253"/>
+      <c r="H35" s="254"/>
+      <c r="I35" s="254"/>
+      <c r="J35" s="254"/>
+      <c r="K35" s="254"/>
+      <c r="L35" s="254"/>
+      <c r="M35" s="254"/>
+      <c r="N35" s="254"/>
+      <c r="O35" s="255"/>
+    </row>
+    <row r="36" spans="1:16" ht="20.85" customHeight="1">
+      <c r="A36" s="167"/>
       <c r="B36" s="17" t="s">
         <v>99</v>
       </c>
@@ -6691,370 +6764,370 @@
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
-      <c r="F36" s="320" t="s">
+      <c r="F36" s="196" t="s">
         <v>96</v>
       </c>
-      <c r="G36" s="320"/>
-      <c r="H36" s="320"/>
-      <c r="I36" s="320"/>
-      <c r="J36" s="320"/>
-      <c r="K36" s="320"/>
-      <c r="L36" s="320"/>
-      <c r="M36" s="320"/>
-      <c r="N36" s="320"/>
-      <c r="O36" s="321"/>
-    </row>
-    <row r="37" spans="1:16" ht="20.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="136"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="196"/>
+      <c r="I36" s="196"/>
+      <c r="J36" s="196"/>
+      <c r="K36" s="196"/>
+      <c r="L36" s="196"/>
+      <c r="M36" s="196"/>
+      <c r="N36" s="196"/>
+      <c r="O36" s="197"/>
+    </row>
+    <row r="37" spans="1:16" ht="20.85" customHeight="1">
+      <c r="A37" s="167"/>
       <c r="B37" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="140" t="s">
+      <c r="C37" s="198" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="140"/>
-      <c r="E37" s="140"/>
-      <c r="F37" s="315" t="s">
+      <c r="D37" s="198"/>
+      <c r="E37" s="198"/>
+      <c r="F37" s="261" t="s">
         <v>95</v>
       </c>
-      <c r="G37" s="315"/>
-      <c r="H37" s="315"/>
-      <c r="I37" s="315"/>
-      <c r="J37" s="315"/>
-      <c r="K37" s="315"/>
-      <c r="L37" s="315"/>
-      <c r="M37" s="315"/>
-      <c r="N37" s="315"/>
-      <c r="O37" s="316"/>
-    </row>
-    <row r="38" spans="1:16" ht="20.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="136"/>
+      <c r="G37" s="261"/>
+      <c r="H37" s="261"/>
+      <c r="I37" s="261"/>
+      <c r="J37" s="261"/>
+      <c r="K37" s="261"/>
+      <c r="L37" s="261"/>
+      <c r="M37" s="261"/>
+      <c r="N37" s="261"/>
+      <c r="O37" s="262"/>
+    </row>
+    <row r="38" spans="1:16" ht="20.85" customHeight="1">
+      <c r="A38" s="167"/>
       <c r="B38" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="140" t="s">
+      <c r="C38" s="198" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="140"/>
-      <c r="E38" s="140"/>
-      <c r="F38" s="313" t="s">
+      <c r="D38" s="198"/>
+      <c r="E38" s="198"/>
+      <c r="F38" s="268" t="s">
         <v>198</v>
       </c>
-      <c r="G38" s="313"/>
-      <c r="H38" s="313"/>
-      <c r="I38" s="313"/>
-      <c r="J38" s="313"/>
-      <c r="K38" s="313"/>
-      <c r="L38" s="313"/>
-      <c r="M38" s="313"/>
-      <c r="N38" s="313"/>
-      <c r="O38" s="314"/>
-    </row>
-    <row r="39" spans="1:16" ht="20.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="136"/>
+      <c r="G38" s="268"/>
+      <c r="H38" s="268"/>
+      <c r="I38" s="268"/>
+      <c r="J38" s="268"/>
+      <c r="K38" s="268"/>
+      <c r="L38" s="268"/>
+      <c r="M38" s="268"/>
+      <c r="N38" s="268"/>
+      <c r="O38" s="269"/>
+    </row>
+    <row r="39" spans="1:16" ht="20.85" customHeight="1">
+      <c r="A39" s="167"/>
       <c r="B39" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="140" t="s">
+      <c r="C39" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="140"/>
-      <c r="E39" s="140"/>
-      <c r="F39" s="315" t="s">
+      <c r="D39" s="198"/>
+      <c r="E39" s="198"/>
+      <c r="F39" s="261" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="315"/>
-      <c r="H39" s="315"/>
-      <c r="I39" s="315"/>
-      <c r="J39" s="315"/>
-      <c r="K39" s="315"/>
-      <c r="L39" s="315"/>
-      <c r="M39" s="315"/>
-      <c r="N39" s="315"/>
-      <c r="O39" s="316"/>
-    </row>
-    <row r="40" spans="1:16" ht="20.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="136"/>
+      <c r="G39" s="261"/>
+      <c r="H39" s="261"/>
+      <c r="I39" s="261"/>
+      <c r="J39" s="261"/>
+      <c r="K39" s="261"/>
+      <c r="L39" s="261"/>
+      <c r="M39" s="261"/>
+      <c r="N39" s="261"/>
+      <c r="O39" s="262"/>
+    </row>
+    <row r="40" spans="1:16" ht="20.85" customHeight="1">
+      <c r="A40" s="167"/>
       <c r="B40" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="C40" s="140" t="s">
+      <c r="C40" s="198" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="140"/>
-      <c r="E40" s="140"/>
-      <c r="F40" s="315" t="s">
+      <c r="D40" s="198"/>
+      <c r="E40" s="198"/>
+      <c r="F40" s="261" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="315"/>
-      <c r="H40" s="315"/>
-      <c r="I40" s="315"/>
-      <c r="J40" s="315"/>
-      <c r="K40" s="315"/>
-      <c r="L40" s="315"/>
-      <c r="M40" s="315"/>
-      <c r="N40" s="315"/>
-      <c r="O40" s="316"/>
-    </row>
-    <row r="41" spans="1:16" ht="20.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="136"/>
+      <c r="G40" s="261"/>
+      <c r="H40" s="261"/>
+      <c r="I40" s="261"/>
+      <c r="J40" s="261"/>
+      <c r="K40" s="261"/>
+      <c r="L40" s="261"/>
+      <c r="M40" s="261"/>
+      <c r="N40" s="261"/>
+      <c r="O40" s="262"/>
+    </row>
+    <row r="41" spans="1:16" ht="20.85" customHeight="1">
+      <c r="A41" s="167"/>
       <c r="B41" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="140" t="s">
+      <c r="C41" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="140"/>
-      <c r="E41" s="140"/>
-      <c r="F41" s="315" t="s">
+      <c r="D41" s="198"/>
+      <c r="E41" s="198"/>
+      <c r="F41" s="261" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="315"/>
-      <c r="H41" s="315"/>
-      <c r="I41" s="315"/>
-      <c r="J41" s="315"/>
-      <c r="K41" s="315"/>
-      <c r="L41" s="315"/>
-      <c r="M41" s="315"/>
-      <c r="N41" s="315"/>
-      <c r="O41" s="316"/>
-    </row>
-    <row r="42" spans="1:16" ht="20.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="136"/>
+      <c r="G41" s="261"/>
+      <c r="H41" s="261"/>
+      <c r="I41" s="261"/>
+      <c r="J41" s="261"/>
+      <c r="K41" s="261"/>
+      <c r="L41" s="261"/>
+      <c r="M41" s="261"/>
+      <c r="N41" s="261"/>
+      <c r="O41" s="262"/>
+    </row>
+    <row r="42" spans="1:16" ht="20.85" customHeight="1">
+      <c r="A42" s="167"/>
       <c r="B42" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="140" t="s">
+      <c r="C42" s="198" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="140"/>
-      <c r="E42" s="140"/>
-      <c r="F42" s="315" t="s">
+      <c r="D42" s="198"/>
+      <c r="E42" s="198"/>
+      <c r="F42" s="261" t="s">
         <v>9</v>
       </c>
-      <c r="G42" s="315"/>
-      <c r="H42" s="315"/>
-      <c r="I42" s="315"/>
-      <c r="J42" s="315"/>
-      <c r="K42" s="315"/>
-      <c r="L42" s="315"/>
-      <c r="M42" s="315"/>
-      <c r="N42" s="315"/>
-      <c r="O42" s="316"/>
-    </row>
-    <row r="43" spans="1:16" ht="20.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="136"/>
+      <c r="G42" s="261"/>
+      <c r="H42" s="261"/>
+      <c r="I42" s="261"/>
+      <c r="J42" s="261"/>
+      <c r="K42" s="261"/>
+      <c r="L42" s="261"/>
+      <c r="M42" s="261"/>
+      <c r="N42" s="261"/>
+      <c r="O42" s="262"/>
+    </row>
+    <row r="43" spans="1:16" ht="20.85" customHeight="1">
+      <c r="A43" s="167"/>
       <c r="B43" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="144" t="s">
+      <c r="C43" s="164" t="s">
         <v>164</v>
       </c>
-      <c r="D43" s="144"/>
-      <c r="E43" s="144"/>
-      <c r="F43" s="320" t="s">
+      <c r="D43" s="164"/>
+      <c r="E43" s="164"/>
+      <c r="F43" s="196" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="320"/>
-      <c r="H43" s="320"/>
-      <c r="I43" s="320"/>
-      <c r="J43" s="320"/>
-      <c r="K43" s="320"/>
-      <c r="L43" s="320"/>
-      <c r="M43" s="320"/>
-      <c r="N43" s="320"/>
-      <c r="O43" s="321"/>
-    </row>
-    <row r="44" spans="1:16" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="168"/>
+      <c r="G43" s="196"/>
+      <c r="H43" s="196"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="196"/>
+      <c r="K43" s="196"/>
+      <c r="L43" s="196"/>
+      <c r="M43" s="196"/>
+      <c r="N43" s="196"/>
+      <c r="O43" s="197"/>
+    </row>
+    <row r="44" spans="1:16" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A44" s="267"/>
       <c r="B44" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="C44" s="156"/>
-      <c r="D44" s="157"/>
-      <c r="E44" s="157"/>
-      <c r="F44" s="157"/>
-      <c r="G44" s="157"/>
-      <c r="H44" s="157"/>
-      <c r="I44" s="157"/>
-      <c r="J44" s="157"/>
-      <c r="K44" s="157"/>
-      <c r="L44" s="157"/>
-      <c r="M44" s="157"/>
-      <c r="N44" s="157"/>
+      <c r="C44" s="421"/>
+      <c r="D44" s="422"/>
+      <c r="E44" s="422"/>
+      <c r="F44" s="422"/>
+      <c r="G44" s="422"/>
+      <c r="H44" s="422"/>
+      <c r="I44" s="422"/>
+      <c r="J44" s="422"/>
+      <c r="K44" s="422"/>
+      <c r="L44" s="422"/>
+      <c r="M44" s="422"/>
+      <c r="N44" s="422"/>
       <c r="O44" s="77" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="150" t="s">
+    <row r="45" spans="1:16" ht="22.7" customHeight="1">
+      <c r="A45" s="179" t="s">
         <v>165</v>
       </c>
-      <c r="B45" s="229" t="s">
+      <c r="B45" s="336" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="230"/>
-      <c r="D45" s="225"/>
-      <c r="E45" s="225"/>
-      <c r="F45" s="225"/>
-      <c r="G45" s="225"/>
-      <c r="H45" s="225"/>
-      <c r="I45" s="225"/>
-      <c r="J45" s="225"/>
-      <c r="K45" s="225"/>
-      <c r="L45" s="225"/>
-      <c r="M45" s="225"/>
-      <c r="N45" s="225"/>
-      <c r="O45" s="226"/>
-    </row>
-    <row r="46" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="136"/>
-      <c r="B46" s="350" t="s">
+      <c r="C45" s="337"/>
+      <c r="D45" s="333"/>
+      <c r="E45" s="333"/>
+      <c r="F45" s="333"/>
+      <c r="G45" s="333"/>
+      <c r="H45" s="333"/>
+      <c r="I45" s="333"/>
+      <c r="J45" s="333"/>
+      <c r="K45" s="333"/>
+      <c r="L45" s="333"/>
+      <c r="M45" s="333"/>
+      <c r="N45" s="333"/>
+      <c r="O45" s="334"/>
+    </row>
+    <row r="46" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A46" s="167"/>
+      <c r="B46" s="263" t="s">
         <v>166</v>
       </c>
-      <c r="C46" s="351"/>
-      <c r="D46" s="378" t="s">
+      <c r="C46" s="264"/>
+      <c r="D46" s="228" t="s">
         <v>136</v>
       </c>
-      <c r="E46" s="379"/>
-      <c r="F46" s="379"/>
-      <c r="G46" s="379"/>
-      <c r="H46" s="379"/>
-      <c r="I46" s="379"/>
-      <c r="J46" s="379"/>
-      <c r="K46" s="379"/>
-      <c r="L46" s="379"/>
-      <c r="M46" s="379"/>
-      <c r="N46" s="379"/>
-      <c r="O46" s="380"/>
-    </row>
-    <row r="47" spans="1:16" ht="20.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="136"/>
-      <c r="B47" s="352"/>
-      <c r="C47" s="353"/>
-      <c r="D47" s="246"/>
-      <c r="E47" s="247"/>
-      <c r="F47" s="247"/>
-      <c r="G47" s="247"/>
-      <c r="H47" s="247"/>
-      <c r="I47" s="247"/>
-      <c r="J47" s="247"/>
-      <c r="K47" s="247"/>
-      <c r="L47" s="247"/>
-      <c r="M47" s="247"/>
-      <c r="N47" s="247"/>
-      <c r="O47" s="248"/>
-    </row>
-    <row r="48" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="136"/>
-      <c r="B48" s="419" t="s">
+      <c r="E46" s="229"/>
+      <c r="F46" s="229"/>
+      <c r="G46" s="229"/>
+      <c r="H46" s="229"/>
+      <c r="I46" s="229"/>
+      <c r="J46" s="229"/>
+      <c r="K46" s="229"/>
+      <c r="L46" s="229"/>
+      <c r="M46" s="229"/>
+      <c r="N46" s="229"/>
+      <c r="O46" s="230"/>
+    </row>
+    <row r="47" spans="1:16" ht="20.85" customHeight="1">
+      <c r="A47" s="167"/>
+      <c r="B47" s="265"/>
+      <c r="C47" s="266"/>
+      <c r="D47" s="352"/>
+      <c r="E47" s="353"/>
+      <c r="F47" s="353"/>
+      <c r="G47" s="353"/>
+      <c r="H47" s="353"/>
+      <c r="I47" s="353"/>
+      <c r="J47" s="353"/>
+      <c r="K47" s="353"/>
+      <c r="L47" s="353"/>
+      <c r="M47" s="353"/>
+      <c r="N47" s="353"/>
+      <c r="O47" s="354"/>
+    </row>
+    <row r="48" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A48" s="167"/>
+      <c r="B48" s="180" t="s">
         <v>177</v>
       </c>
-      <c r="C48" s="420"/>
-      <c r="D48" s="227" t="s">
+      <c r="C48" s="181"/>
+      <c r="D48" s="335" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="227"/>
-      <c r="F48" s="339" t="s">
+      <c r="E48" s="335"/>
+      <c r="F48" s="251" t="s">
         <v>251</v>
       </c>
-      <c r="G48" s="339"/>
-      <c r="H48" s="339"/>
-      <c r="I48" s="339"/>
-      <c r="J48" s="339"/>
-      <c r="K48" s="339"/>
+      <c r="G48" s="251"/>
+      <c r="H48" s="251"/>
+      <c r="I48" s="251"/>
+      <c r="J48" s="251"/>
+      <c r="K48" s="251"/>
       <c r="L48" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="M48" s="338"/>
-      <c r="N48" s="338"/>
+      <c r="M48" s="250"/>
+      <c r="N48" s="250"/>
       <c r="O48" s="78"/>
     </row>
-    <row r="49" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="136"/>
-      <c r="B49" s="421"/>
-      <c r="C49" s="422"/>
-      <c r="D49" s="228" t="s">
+    <row r="49" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A49" s="167"/>
+      <c r="B49" s="182"/>
+      <c r="C49" s="183"/>
+      <c r="D49" s="241" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="228"/>
-      <c r="F49" s="263" t="s">
+      <c r="E49" s="241"/>
+      <c r="F49" s="169" t="s">
         <v>252</v>
       </c>
-      <c r="G49" s="263"/>
-      <c r="H49" s="263"/>
-      <c r="I49" s="263"/>
-      <c r="J49" s="263"/>
-      <c r="K49" s="263"/>
-      <c r="L49" s="138" t="s">
+      <c r="G49" s="169"/>
+      <c r="H49" s="169"/>
+      <c r="I49" s="169"/>
+      <c r="J49" s="169"/>
+      <c r="K49" s="169"/>
+      <c r="L49" s="158" t="s">
         <v>82</v>
       </c>
-      <c r="M49" s="138"/>
-      <c r="N49" s="138"/>
-      <c r="O49" s="408"/>
-    </row>
-    <row r="50" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="136"/>
-      <c r="B50" s="421"/>
-      <c r="C50" s="422"/>
-      <c r="D50" s="228" t="s">
+      <c r="M49" s="158"/>
+      <c r="N49" s="158"/>
+      <c r="O49" s="159"/>
+    </row>
+    <row r="50" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A50" s="167"/>
+      <c r="B50" s="182"/>
+      <c r="C50" s="183"/>
+      <c r="D50" s="241" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="228"/>
-      <c r="F50" s="138"/>
-      <c r="G50" s="138"/>
-      <c r="H50" s="138"/>
-      <c r="I50" s="138"/>
-      <c r="J50" s="138"/>
-      <c r="K50" s="138"/>
+      <c r="E50" s="241"/>
+      <c r="F50" s="158"/>
+      <c r="G50" s="158"/>
+      <c r="H50" s="158"/>
+      <c r="I50" s="158"/>
+      <c r="J50" s="158"/>
+      <c r="K50" s="158"/>
       <c r="L50" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="M50" s="340"/>
-      <c r="N50" s="340"/>
+      <c r="M50" s="252"/>
+      <c r="N50" s="252"/>
       <c r="O50" s="80"/>
     </row>
-    <row r="51" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="136"/>
-      <c r="B51" s="423"/>
-      <c r="C51" s="424"/>
-      <c r="D51" s="228" t="s">
+    <row r="51" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A51" s="167"/>
+      <c r="B51" s="184"/>
+      <c r="C51" s="185"/>
+      <c r="D51" s="241" t="s">
         <v>20</v>
       </c>
-      <c r="E51" s="228"/>
-      <c r="F51" s="263"/>
-      <c r="G51" s="263"/>
-      <c r="H51" s="263"/>
-      <c r="I51" s="263"/>
-      <c r="J51" s="263"/>
-      <c r="K51" s="263"/>
-      <c r="L51" s="138" t="s">
+      <c r="E51" s="241"/>
+      <c r="F51" s="169"/>
+      <c r="G51" s="169"/>
+      <c r="H51" s="169"/>
+      <c r="I51" s="169"/>
+      <c r="J51" s="169"/>
+      <c r="K51" s="169"/>
+      <c r="L51" s="158" t="s">
         <v>81</v>
       </c>
-      <c r="M51" s="138"/>
-      <c r="N51" s="138"/>
-      <c r="O51" s="408"/>
-    </row>
-    <row r="52" spans="1:15" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="152"/>
-      <c r="B52" s="346" t="s">
+      <c r="M51" s="158"/>
+      <c r="N51" s="158"/>
+      <c r="O51" s="159"/>
+    </row>
+    <row r="52" spans="1:15" ht="75" customHeight="1" thickBot="1">
+      <c r="A52" s="326"/>
+      <c r="B52" s="257" t="s">
         <v>187</v>
       </c>
-      <c r="C52" s="347"/>
-      <c r="D52" s="360"/>
-      <c r="E52" s="361"/>
-      <c r="F52" s="361"/>
-      <c r="G52" s="361"/>
-      <c r="H52" s="361"/>
-      <c r="I52" s="361"/>
-      <c r="J52" s="361"/>
-      <c r="K52" s="361"/>
-      <c r="L52" s="361"/>
-      <c r="M52" s="361"/>
-      <c r="N52" s="361"/>
-      <c r="O52" s="362"/>
-    </row>
-    <row r="53" spans="1:15" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="258"/>
+      <c r="D52" s="205"/>
+      <c r="E52" s="206"/>
+      <c r="F52" s="206"/>
+      <c r="G52" s="206"/>
+      <c r="H52" s="206"/>
+      <c r="I52" s="206"/>
+      <c r="J52" s="206"/>
+      <c r="K52" s="206"/>
+      <c r="L52" s="206"/>
+      <c r="M52" s="206"/>
+      <c r="N52" s="206"/>
+      <c r="O52" s="207"/>
+    </row>
+    <row r="53" spans="1:15" ht="15.6" customHeight="1" thickTop="1" thickBot="1">
       <c r="A53" s="81"/>
       <c r="B53" s="82"/>
       <c r="C53" s="82"/>
@@ -7071,31 +7144,31 @@
       <c r="N53" s="82"/>
       <c r="O53" s="82"/>
     </row>
-    <row r="54" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="150" t="s">
+    <row r="54" spans="1:15" ht="24" customHeight="1">
+      <c r="A54" s="179" t="s">
         <v>167</v>
       </c>
-      <c r="B54" s="386" t="s">
+      <c r="B54" s="176" t="s">
         <v>168</v>
       </c>
-      <c r="C54" s="387"/>
-      <c r="D54" s="387"/>
-      <c r="E54" s="387"/>
-      <c r="F54" s="387"/>
-      <c r="G54" s="387"/>
-      <c r="H54" s="387"/>
-      <c r="I54" s="387"/>
-      <c r="J54" s="387"/>
-      <c r="K54" s="387"/>
-      <c r="L54" s="387"/>
-      <c r="M54" s="387"/>
-      <c r="N54" s="387"/>
-      <c r="O54" s="388"/>
-    </row>
-    <row r="55" spans="1:15" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="136"/>
-      <c r="B55" s="348"/>
-      <c r="C55" s="349"/>
+      <c r="C54" s="177"/>
+      <c r="D54" s="177"/>
+      <c r="E54" s="177"/>
+      <c r="F54" s="177"/>
+      <c r="G54" s="177"/>
+      <c r="H54" s="177"/>
+      <c r="I54" s="177"/>
+      <c r="J54" s="177"/>
+      <c r="K54" s="177"/>
+      <c r="L54" s="177"/>
+      <c r="M54" s="177"/>
+      <c r="N54" s="177"/>
+      <c r="O54" s="178"/>
+    </row>
+    <row r="55" spans="1:15" ht="3.75" customHeight="1">
+      <c r="A55" s="167"/>
+      <c r="B55" s="259"/>
+      <c r="C55" s="260"/>
       <c r="D55" s="83"/>
       <c r="E55" s="84"/>
       <c r="F55" s="84"/>
@@ -7109,128 +7182,128 @@
       <c r="N55" s="84"/>
       <c r="O55" s="80"/>
     </row>
-    <row r="56" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="136"/>
-      <c r="B56" s="153" t="s">
+    <row r="56" spans="1:15" ht="21.95" customHeight="1">
+      <c r="A56" s="167"/>
+      <c r="B56" s="418" t="s">
         <v>152</v>
       </c>
-      <c r="C56" s="154"/>
-      <c r="D56" s="158" t="s">
+      <c r="C56" s="419"/>
+      <c r="D56" s="150" t="s">
         <v>236</v>
       </c>
-      <c r="E56" s="159"/>
-      <c r="F56" s="159"/>
-      <c r="G56" s="159"/>
-      <c r="H56" s="159"/>
-      <c r="I56" s="159"/>
-      <c r="J56" s="159"/>
-      <c r="K56" s="159"/>
-      <c r="L56" s="159"/>
-      <c r="M56" s="159"/>
-      <c r="N56" s="159"/>
-      <c r="O56" s="160"/>
-    </row>
-    <row r="57" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="136"/>
-      <c r="B57" s="155"/>
-      <c r="C57" s="154"/>
-      <c r="D57" s="159"/>
-      <c r="E57" s="159"/>
-      <c r="F57" s="159"/>
-      <c r="G57" s="159"/>
-      <c r="H57" s="159"/>
-      <c r="I57" s="159"/>
-      <c r="J57" s="159"/>
-      <c r="K57" s="159"/>
-      <c r="L57" s="159"/>
-      <c r="M57" s="159"/>
-      <c r="N57" s="159"/>
-      <c r="O57" s="160"/>
-    </row>
-    <row r="58" spans="1:15" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="136"/>
-      <c r="B58" s="413" t="s">
+      <c r="E56" s="423"/>
+      <c r="F56" s="423"/>
+      <c r="G56" s="423"/>
+      <c r="H56" s="423"/>
+      <c r="I56" s="423"/>
+      <c r="J56" s="423"/>
+      <c r="K56" s="423"/>
+      <c r="L56" s="423"/>
+      <c r="M56" s="423"/>
+      <c r="N56" s="423"/>
+      <c r="O56" s="424"/>
+    </row>
+    <row r="57" spans="1:15" ht="21.95" customHeight="1">
+      <c r="A57" s="167"/>
+      <c r="B57" s="420"/>
+      <c r="C57" s="419"/>
+      <c r="D57" s="423"/>
+      <c r="E57" s="423"/>
+      <c r="F57" s="423"/>
+      <c r="G57" s="423"/>
+      <c r="H57" s="423"/>
+      <c r="I57" s="423"/>
+      <c r="J57" s="423"/>
+      <c r="K57" s="423"/>
+      <c r="L57" s="423"/>
+      <c r="M57" s="423"/>
+      <c r="N57" s="423"/>
+      <c r="O57" s="424"/>
+    </row>
+    <row r="58" spans="1:15" ht="12.6" customHeight="1">
+      <c r="A58" s="167"/>
+      <c r="B58" s="170" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="414"/>
-      <c r="D58" s="414"/>
-      <c r="E58" s="414"/>
-      <c r="F58" s="414"/>
-      <c r="G58" s="414"/>
-      <c r="H58" s="414"/>
-      <c r="I58" s="414"/>
-      <c r="J58" s="414"/>
-      <c r="K58" s="414"/>
-      <c r="L58" s="414"/>
-      <c r="M58" s="414"/>
-      <c r="N58" s="414"/>
-      <c r="O58" s="415"/>
-    </row>
-    <row r="59" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="136"/>
-      <c r="B59" s="345" t="s">
+      <c r="C58" s="171"/>
+      <c r="D58" s="171"/>
+      <c r="E58" s="171"/>
+      <c r="F58" s="171"/>
+      <c r="G58" s="171"/>
+      <c r="H58" s="171"/>
+      <c r="I58" s="171"/>
+      <c r="J58" s="171"/>
+      <c r="K58" s="171"/>
+      <c r="L58" s="171"/>
+      <c r="M58" s="171"/>
+      <c r="N58" s="171"/>
+      <c r="O58" s="172"/>
+    </row>
+    <row r="59" spans="1:15" ht="17.25" customHeight="1">
+      <c r="A59" s="167"/>
+      <c r="B59" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="144"/>
-      <c r="D59" s="138"/>
-      <c r="E59" s="138"/>
-      <c r="F59" s="138"/>
-      <c r="G59" s="138"/>
-      <c r="H59" s="138"/>
-      <c r="I59" s="138"/>
-      <c r="J59" s="138"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="158"/>
+      <c r="E59" s="158"/>
+      <c r="F59" s="158"/>
+      <c r="G59" s="158"/>
+      <c r="H59" s="158"/>
+      <c r="I59" s="158"/>
+      <c r="J59" s="158"/>
       <c r="K59" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="L59" s="189"/>
-      <c r="M59" s="189"/>
-      <c r="N59" s="189"/>
-      <c r="O59" s="190"/>
-    </row>
-    <row r="60" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="151"/>
-      <c r="B60" s="344" t="s">
+      <c r="L59" s="378"/>
+      <c r="M59" s="378"/>
+      <c r="N59" s="378"/>
+      <c r="O59" s="379"/>
+    </row>
+    <row r="60" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A60" s="168"/>
+      <c r="B60" s="256" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="267"/>
-      <c r="D60" s="334"/>
-      <c r="E60" s="334"/>
-      <c r="F60" s="334"/>
-      <c r="G60" s="334"/>
-      <c r="H60" s="334"/>
-      <c r="I60" s="334"/>
-      <c r="J60" s="334"/>
+      <c r="C60" s="227"/>
+      <c r="D60" s="240"/>
+      <c r="E60" s="240"/>
+      <c r="F60" s="240"/>
+      <c r="G60" s="240"/>
+      <c r="H60" s="240"/>
+      <c r="I60" s="240"/>
+      <c r="J60" s="240"/>
       <c r="K60" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="L60" s="358"/>
-      <c r="M60" s="358"/>
-      <c r="N60" s="358"/>
-      <c r="O60" s="359"/>
-    </row>
-    <row r="61" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="150" t="s">
+      <c r="L60" s="203"/>
+      <c r="M60" s="203"/>
+      <c r="N60" s="203"/>
+      <c r="O60" s="204"/>
+    </row>
+    <row r="61" spans="1:15" ht="21.75" customHeight="1">
+      <c r="A61" s="179" t="s">
         <v>179</v>
       </c>
-      <c r="B61" s="386" t="s">
+      <c r="B61" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="387"/>
-      <c r="D61" s="387"/>
-      <c r="E61" s="387"/>
-      <c r="F61" s="387"/>
-      <c r="G61" s="387"/>
-      <c r="H61" s="387"/>
-      <c r="I61" s="387"/>
-      <c r="J61" s="387"/>
-      <c r="K61" s="387"/>
-      <c r="L61" s="387"/>
-      <c r="M61" s="387"/>
-      <c r="N61" s="387"/>
-      <c r="O61" s="388"/>
-    </row>
-    <row r="62" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="136"/>
+      <c r="C61" s="177"/>
+      <c r="D61" s="177"/>
+      <c r="E61" s="177"/>
+      <c r="F61" s="177"/>
+      <c r="G61" s="177"/>
+      <c r="H61" s="177"/>
+      <c r="I61" s="177"/>
+      <c r="J61" s="177"/>
+      <c r="K61" s="177"/>
+      <c r="L61" s="177"/>
+      <c r="M61" s="177"/>
+      <c r="N61" s="177"/>
+      <c r="O61" s="178"/>
+    </row>
+    <row r="62" spans="1:15" ht="18" customHeight="1">
+      <c r="A62" s="167"/>
       <c r="B62" s="25" t="s">
         <v>1</v>
       </c>
@@ -7254,8 +7327,8 @@
       <c r="N62" s="87" ph="1"/>
       <c r="O62" s="88" ph="1"/>
     </row>
-    <row r="63" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="136"/>
+    <row r="63" spans="1:15" ht="18" customHeight="1">
+      <c r="A63" s="167"/>
       <c r="B63" s="86" t="s" ph="1">
         <v>125</v>
       </c>
@@ -7273,29 +7346,29 @@
       <c r="N63" s="87" ph="1"/>
       <c r="O63" s="88" ph="1"/>
     </row>
-    <row r="64" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="151"/>
-      <c r="B64" s="269" t="s" ph="1">
+    <row r="64" spans="1:15" ht="18" customHeight="1" thickBot="1">
+      <c r="A64" s="168"/>
+      <c r="B64" s="328" t="s" ph="1">
         <v>127</v>
       </c>
-      <c r="C64" s="270" ph="1"/>
-      <c r="D64" s="270" ph="1"/>
-      <c r="E64" s="271" ph="1"/>
-      <c r="F64" s="271" ph="1"/>
-      <c r="G64" s="271" ph="1"/>
-      <c r="H64" s="271" ph="1"/>
-      <c r="I64" s="271" ph="1"/>
-      <c r="J64" s="271" ph="1"/>
-      <c r="K64" s="271" ph="1"/>
-      <c r="L64" s="271" ph="1"/>
-      <c r="M64" s="271" ph="1"/>
-      <c r="N64" s="271" ph="1"/>
+      <c r="C64" s="329" ph="1"/>
+      <c r="D64" s="329" ph="1"/>
+      <c r="E64" s="330" ph="1"/>
+      <c r="F64" s="330" ph="1"/>
+      <c r="G64" s="330" ph="1"/>
+      <c r="H64" s="330" ph="1"/>
+      <c r="I64" s="330" ph="1"/>
+      <c r="J64" s="330" ph="1"/>
+      <c r="K64" s="330" ph="1"/>
+      <c r="L64" s="330" ph="1"/>
+      <c r="M64" s="330" ph="1"/>
+      <c r="N64" s="330" ph="1"/>
       <c r="O64" s="89" t="s" ph="1">
         <v>126</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="150" t="s">
+    <row r="65" spans="1:17" ht="23.25" customHeight="1">
+      <c r="A65" s="179" t="s">
         <v>178</v>
       </c>
       <c r="B65" s="90" t="s">
@@ -7327,8 +7400,8 @@
       </c>
       <c r="O65" s="93"/>
     </row>
-    <row r="66" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="136"/>
+    <row r="66" spans="1:17" ht="19.5" customHeight="1">
+      <c r="A66" s="167"/>
       <c r="B66" s="94"/>
       <c r="C66" s="66" t="s">
         <v>139</v>
@@ -7339,25 +7412,25 @@
       <c r="G66" s="131" t="s">
         <v>207</v>
       </c>
-      <c r="H66" s="381"/>
-      <c r="I66" s="382"/>
-      <c r="J66" s="382"/>
-      <c r="K66" s="382"/>
-      <c r="L66" s="382"/>
-      <c r="M66" s="382"/>
-      <c r="N66" s="382"/>
+      <c r="H66" s="231"/>
+      <c r="I66" s="232"/>
+      <c r="J66" s="232"/>
+      <c r="K66" s="232"/>
+      <c r="L66" s="232"/>
+      <c r="M66" s="232"/>
+      <c r="N66" s="232"/>
       <c r="O66" s="132" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="151"/>
+    <row r="67" spans="1:17" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A67" s="168"/>
       <c r="B67" s="95"/>
-      <c r="C67" s="267" t="s">
+      <c r="C67" s="227" t="s">
         <v>140</v>
       </c>
-      <c r="D67" s="267"/>
-      <c r="E67" s="267"/>
+      <c r="D67" s="227"/>
+      <c r="E67" s="227"/>
       <c r="F67" s="22" t="s">
         <v>150</v>
       </c>
@@ -7368,38 +7441,38 @@
       <c r="I67" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="J67" s="267" t="s">
+      <c r="J67" s="227" t="s">
         <v>142</v>
       </c>
-      <c r="K67" s="267"/>
-      <c r="L67" s="267"/>
-      <c r="M67" s="267"/>
-      <c r="N67" s="267"/>
-      <c r="O67" s="268"/>
-    </row>
-    <row r="68" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="150" t="s">
+      <c r="K67" s="227"/>
+      <c r="L67" s="227"/>
+      <c r="M67" s="227"/>
+      <c r="N67" s="227"/>
+      <c r="O67" s="327"/>
+    </row>
+    <row r="68" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A68" s="179" t="s">
         <v>108</v>
       </c>
-      <c r="B68" s="198" t="s">
+      <c r="B68" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="C68" s="199"/>
-      <c r="D68" s="199"/>
-      <c r="E68" s="199"/>
-      <c r="F68" s="199"/>
-      <c r="G68" s="199"/>
-      <c r="H68" s="199"/>
-      <c r="I68" s="199"/>
-      <c r="J68" s="199"/>
-      <c r="K68" s="199"/>
-      <c r="L68" s="199"/>
-      <c r="M68" s="199"/>
-      <c r="N68" s="199"/>
-      <c r="O68" s="200"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="165"/>
+      <c r="C68" s="214"/>
+      <c r="D68" s="214"/>
+      <c r="E68" s="214"/>
+      <c r="F68" s="214"/>
+      <c r="G68" s="214"/>
+      <c r="H68" s="214"/>
+      <c r="I68" s="214"/>
+      <c r="J68" s="214"/>
+      <c r="K68" s="214"/>
+      <c r="L68" s="214"/>
+      <c r="M68" s="214"/>
+      <c r="N68" s="214"/>
+      <c r="O68" s="215"/>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="194"/>
       <c r="B69" s="25" t="s">
         <v>1</v>
       </c>
@@ -7423,8 +7496,8 @@
       <c r="N69" s="79"/>
       <c r="O69" s="98"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="165"/>
+    <row r="70" spans="1:17">
+      <c r="A70" s="194"/>
       <c r="B70" s="79"/>
       <c r="C70" s="79" t="s">
         <v>30</v>
@@ -7442,75 +7515,75 @@
       <c r="N70" s="79"/>
       <c r="O70" s="98"/>
     </row>
-    <row r="71" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="165"/>
+    <row r="71" spans="1:17" ht="21.95" customHeight="1">
+      <c r="A71" s="194"/>
       <c r="B71" s="79"/>
       <c r="C71" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="161"/>
-      <c r="E71" s="162"/>
-      <c r="F71" s="162"/>
-      <c r="G71" s="162"/>
-      <c r="H71" s="162"/>
-      <c r="I71" s="162"/>
-      <c r="J71" s="162"/>
-      <c r="K71" s="162"/>
-      <c r="L71" s="162"/>
-      <c r="M71" s="162"/>
-      <c r="N71" s="162"/>
+      <c r="D71" s="425"/>
+      <c r="E71" s="426"/>
+      <c r="F71" s="426"/>
+      <c r="G71" s="426"/>
+      <c r="H71" s="426"/>
+      <c r="I71" s="426"/>
+      <c r="J71" s="426"/>
+      <c r="K71" s="426"/>
+      <c r="L71" s="426"/>
+      <c r="M71" s="426"/>
+      <c r="N71" s="426"/>
       <c r="O71" s="64" t="s">
         <v>186</v>
       </c>
       <c r="P71" s="99"/>
       <c r="Q71" s="99"/>
     </row>
-    <row r="72" spans="1:17" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="166"/>
+    <row r="72" spans="1:17" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A72" s="195"/>
       <c r="B72" s="100"/>
       <c r="C72" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="D72" s="163"/>
-      <c r="E72" s="164"/>
-      <c r="F72" s="164"/>
-      <c r="G72" s="164"/>
-      <c r="H72" s="164"/>
-      <c r="I72" s="164"/>
-      <c r="J72" s="164"/>
-      <c r="K72" s="164"/>
-      <c r="L72" s="164"/>
-      <c r="M72" s="164"/>
-      <c r="N72" s="164"/>
+      <c r="D72" s="427"/>
+      <c r="E72" s="428"/>
+      <c r="F72" s="428"/>
+      <c r="G72" s="428"/>
+      <c r="H72" s="428"/>
+      <c r="I72" s="428"/>
+      <c r="J72" s="428"/>
+      <c r="K72" s="428"/>
+      <c r="L72" s="428"/>
+      <c r="M72" s="428"/>
+      <c r="N72" s="428"/>
       <c r="O72" s="101" t="s">
         <v>186</v>
       </c>
       <c r="P72" s="99"/>
       <c r="Q72" s="99"/>
     </row>
-    <row r="73" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="150" t="s">
+    <row r="73" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A73" s="179" t="s">
         <v>120</v>
       </c>
-      <c r="B73" s="198" t="s">
+      <c r="B73" s="213" t="s">
         <v>107</v>
       </c>
-      <c r="C73" s="199"/>
-      <c r="D73" s="199"/>
-      <c r="E73" s="199"/>
-      <c r="F73" s="199"/>
-      <c r="G73" s="199"/>
-      <c r="H73" s="199"/>
-      <c r="I73" s="199"/>
-      <c r="J73" s="199"/>
-      <c r="K73" s="199"/>
-      <c r="L73" s="199"/>
-      <c r="M73" s="199"/>
-      <c r="N73" s="199"/>
-      <c r="O73" s="200"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="165"/>
+      <c r="C73" s="214"/>
+      <c r="D73" s="214"/>
+      <c r="E73" s="214"/>
+      <c r="F73" s="214"/>
+      <c r="G73" s="214"/>
+      <c r="H73" s="214"/>
+      <c r="I73" s="214"/>
+      <c r="J73" s="214"/>
+      <c r="K73" s="214"/>
+      <c r="L73" s="214"/>
+      <c r="M73" s="214"/>
+      <c r="N73" s="214"/>
+      <c r="O73" s="215"/>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="194"/>
       <c r="B74" s="25" t="s">
         <v>1</v>
       </c>
@@ -7534,8 +7607,8 @@
       <c r="N74" s="79"/>
       <c r="O74" s="98"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="165"/>
+    <row r="75" spans="1:17" ht="18.75">
+      <c r="A75" s="194"/>
       <c r="B75" s="94"/>
       <c r="C75" s="79" t="s">
         <v>33</v>
@@ -7549,18 +7622,18 @@
       <c r="J75" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="K75" s="384" t="s">
+      <c r="K75" s="234" t="s">
         <v>213</v>
       </c>
-      <c r="L75" s="385"/>
-      <c r="M75" s="382"/>
+      <c r="L75" s="235"/>
+      <c r="M75" s="232"/>
       <c r="N75" s="102" t="s">
         <v>214</v>
       </c>
       <c r="O75" s="64"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="165"/>
+    <row r="76" spans="1:17" ht="18.75">
+      <c r="A76" s="194"/>
       <c r="B76" s="94"/>
       <c r="C76" s="79" t="s">
         <v>34</v>
@@ -7568,753 +7641,753 @@
       <c r="D76" s="79" t="s">
         <v>209</v>
       </c>
-      <c r="E76" s="383" t="s">
+      <c r="E76" s="233" t="s">
         <v>212</v>
       </c>
-      <c r="F76" s="382"/>
-      <c r="G76" s="382"/>
+      <c r="F76" s="232"/>
+      <c r="G76" s="232"/>
       <c r="H76" s="102"/>
       <c r="I76" s="102"/>
-      <c r="J76" s="174"/>
-      <c r="K76" s="174"/>
-      <c r="L76" s="174"/>
-      <c r="M76" s="174"/>
-      <c r="N76" s="174"/>
-      <c r="O76" s="175"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="165"/>
+      <c r="J76" s="380"/>
+      <c r="K76" s="380"/>
+      <c r="L76" s="380"/>
+      <c r="M76" s="380"/>
+      <c r="N76" s="380"/>
+      <c r="O76" s="381"/>
+    </row>
+    <row r="77" spans="1:17" ht="18.75">
+      <c r="A77" s="194"/>
       <c r="B77" s="94"/>
       <c r="C77" s="79"/>
       <c r="D77" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="E77" s="383" t="s">
+      <c r="E77" s="233" t="s">
         <v>212</v>
       </c>
-      <c r="F77" s="382"/>
-      <c r="G77" s="382"/>
+      <c r="F77" s="232"/>
+      <c r="G77" s="232"/>
       <c r="H77" s="102"/>
       <c r="I77" s="102"/>
-      <c r="J77" s="174"/>
-      <c r="K77" s="174"/>
-      <c r="L77" s="174"/>
-      <c r="M77" s="174"/>
-      <c r="N77" s="174"/>
-      <c r="O77" s="175"/>
-    </row>
-    <row r="78" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="165"/>
+      <c r="J77" s="380"/>
+      <c r="K77" s="380"/>
+      <c r="L77" s="380"/>
+      <c r="M77" s="380"/>
+      <c r="N77" s="380"/>
+      <c r="O77" s="381"/>
+    </row>
+    <row r="78" spans="1:17" ht="19.5" thickBot="1">
+      <c r="A78" s="194"/>
       <c r="B78" s="94"/>
       <c r="C78" s="79"/>
       <c r="D78" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="E78" s="383" t="s">
+      <c r="E78" s="233" t="s">
         <v>212</v>
       </c>
-      <c r="F78" s="382"/>
-      <c r="G78" s="382"/>
+      <c r="F78" s="232"/>
+      <c r="G78" s="232"/>
       <c r="H78" s="102"/>
       <c r="I78" s="102"/>
-      <c r="J78" s="174"/>
-      <c r="K78" s="174"/>
-      <c r="L78" s="174"/>
-      <c r="M78" s="174"/>
-      <c r="N78" s="174"/>
-      <c r="O78" s="175"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="150" t="s">
+      <c r="J78" s="380"/>
+      <c r="K78" s="380"/>
+      <c r="L78" s="380"/>
+      <c r="M78" s="380"/>
+      <c r="N78" s="380"/>
+      <c r="O78" s="381"/>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="179" t="s">
         <v>188</v>
       </c>
-      <c r="B79" s="425" t="s">
+      <c r="B79" s="186" t="s">
         <v>35</v>
       </c>
-      <c r="C79" s="426"/>
-      <c r="D79" s="426"/>
-      <c r="E79" s="426"/>
-      <c r="F79" s="426"/>
-      <c r="G79" s="426"/>
-      <c r="H79" s="426"/>
-      <c r="I79" s="426"/>
-      <c r="J79" s="426"/>
-      <c r="K79" s="426"/>
-      <c r="L79" s="426"/>
-      <c r="M79" s="426"/>
-      <c r="N79" s="426"/>
-      <c r="O79" s="427"/>
-    </row>
-    <row r="80" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="136"/>
-      <c r="B80" s="194" t="s">
+      <c r="C79" s="187"/>
+      <c r="D79" s="187"/>
+      <c r="E79" s="187"/>
+      <c r="F79" s="187"/>
+      <c r="G79" s="187"/>
+      <c r="H79" s="187"/>
+      <c r="I79" s="187"/>
+      <c r="J79" s="187"/>
+      <c r="K79" s="187"/>
+      <c r="L79" s="187"/>
+      <c r="M79" s="187"/>
+      <c r="N79" s="187"/>
+      <c r="O79" s="188"/>
+    </row>
+    <row r="80" spans="1:17" ht="39" customHeight="1">
+      <c r="A80" s="167"/>
+      <c r="B80" s="149" t="s">
         <v>240</v>
       </c>
-      <c r="C80" s="158"/>
-      <c r="D80" s="158"/>
-      <c r="E80" s="158"/>
-      <c r="F80" s="158"/>
-      <c r="G80" s="158"/>
-      <c r="H80" s="158"/>
-      <c r="I80" s="158"/>
-      <c r="J80" s="158"/>
-      <c r="K80" s="158"/>
-      <c r="L80" s="158"/>
-      <c r="M80" s="158"/>
-      <c r="N80" s="158"/>
-      <c r="O80" s="195"/>
-    </row>
-    <row r="81" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="136"/>
-      <c r="B81" s="194"/>
-      <c r="C81" s="158"/>
-      <c r="D81" s="158"/>
-      <c r="E81" s="158"/>
-      <c r="F81" s="158"/>
-      <c r="G81" s="158"/>
-      <c r="H81" s="158"/>
-      <c r="I81" s="158"/>
-      <c r="J81" s="158"/>
-      <c r="K81" s="158"/>
-      <c r="L81" s="158"/>
-      <c r="M81" s="158"/>
-      <c r="N81" s="158"/>
-      <c r="O81" s="195"/>
-    </row>
-    <row r="82" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="136"/>
-      <c r="B82" s="194"/>
-      <c r="C82" s="158"/>
-      <c r="D82" s="158"/>
-      <c r="E82" s="158"/>
-      <c r="F82" s="158"/>
-      <c r="G82" s="158"/>
-      <c r="H82" s="158"/>
-      <c r="I82" s="158"/>
-      <c r="J82" s="158"/>
-      <c r="K82" s="158"/>
-      <c r="L82" s="158"/>
-      <c r="M82" s="158"/>
-      <c r="N82" s="158"/>
-      <c r="O82" s="195"/>
-    </row>
-    <row r="83" spans="1:15" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="151"/>
-      <c r="B83" s="196"/>
-      <c r="C83" s="185"/>
-      <c r="D83" s="185"/>
-      <c r="E83" s="185"/>
-      <c r="F83" s="185"/>
-      <c r="G83" s="185"/>
-      <c r="H83" s="185"/>
-      <c r="I83" s="185"/>
-      <c r="J83" s="185"/>
-      <c r="K83" s="185"/>
-      <c r="L83" s="185"/>
-      <c r="M83" s="185"/>
-      <c r="N83" s="185"/>
-      <c r="O83" s="197"/>
-    </row>
-    <row r="84" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="150" t="s">
+      <c r="C80" s="150"/>
+      <c r="D80" s="150"/>
+      <c r="E80" s="150"/>
+      <c r="F80" s="150"/>
+      <c r="G80" s="150"/>
+      <c r="H80" s="150"/>
+      <c r="I80" s="150"/>
+      <c r="J80" s="150"/>
+      <c r="K80" s="150"/>
+      <c r="L80" s="150"/>
+      <c r="M80" s="150"/>
+      <c r="N80" s="150"/>
+      <c r="O80" s="151"/>
+    </row>
+    <row r="81" spans="1:15" ht="39" customHeight="1">
+      <c r="A81" s="167"/>
+      <c r="B81" s="149"/>
+      <c r="C81" s="150"/>
+      <c r="D81" s="150"/>
+      <c r="E81" s="150"/>
+      <c r="F81" s="150"/>
+      <c r="G81" s="150"/>
+      <c r="H81" s="150"/>
+      <c r="I81" s="150"/>
+      <c r="J81" s="150"/>
+      <c r="K81" s="150"/>
+      <c r="L81" s="150"/>
+      <c r="M81" s="150"/>
+      <c r="N81" s="150"/>
+      <c r="O81" s="151"/>
+    </row>
+    <row r="82" spans="1:15" ht="39" customHeight="1">
+      <c r="A82" s="167"/>
+      <c r="B82" s="149"/>
+      <c r="C82" s="150"/>
+      <c r="D82" s="150"/>
+      <c r="E82" s="150"/>
+      <c r="F82" s="150"/>
+      <c r="G82" s="150"/>
+      <c r="H82" s="150"/>
+      <c r="I82" s="150"/>
+      <c r="J82" s="150"/>
+      <c r="K82" s="150"/>
+      <c r="L82" s="150"/>
+      <c r="M82" s="150"/>
+      <c r="N82" s="150"/>
+      <c r="O82" s="151"/>
+    </row>
+    <row r="83" spans="1:15" ht="39" customHeight="1" thickBot="1">
+      <c r="A83" s="168"/>
+      <c r="B83" s="155"/>
+      <c r="C83" s="192"/>
+      <c r="D83" s="192"/>
+      <c r="E83" s="192"/>
+      <c r="F83" s="192"/>
+      <c r="G83" s="192"/>
+      <c r="H83" s="192"/>
+      <c r="I83" s="192"/>
+      <c r="J83" s="192"/>
+      <c r="K83" s="192"/>
+      <c r="L83" s="192"/>
+      <c r="M83" s="192"/>
+      <c r="N83" s="192"/>
+      <c r="O83" s="193"/>
+    </row>
+    <row r="84" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A84" s="179" t="s">
         <v>189</v>
       </c>
-      <c r="B84" s="365" t="s">
+      <c r="B84" s="210" t="s">
         <v>36</v>
       </c>
-      <c r="C84" s="366"/>
-      <c r="D84" s="366"/>
-      <c r="E84" s="366"/>
-      <c r="F84" s="366"/>
-      <c r="G84" s="366"/>
-      <c r="H84" s="366"/>
-      <c r="I84" s="366"/>
-      <c r="J84" s="366"/>
-      <c r="K84" s="366"/>
-      <c r="L84" s="366"/>
-      <c r="M84" s="366"/>
-      <c r="N84" s="366"/>
-      <c r="O84" s="367"/>
-    </row>
-    <row r="85" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="136"/>
-      <c r="B85" s="194" t="s">
+      <c r="C84" s="211"/>
+      <c r="D84" s="211"/>
+      <c r="E84" s="211"/>
+      <c r="F84" s="211"/>
+      <c r="G84" s="211"/>
+      <c r="H84" s="211"/>
+      <c r="I84" s="211"/>
+      <c r="J84" s="211"/>
+      <c r="K84" s="211"/>
+      <c r="L84" s="211"/>
+      <c r="M84" s="211"/>
+      <c r="N84" s="211"/>
+      <c r="O84" s="212"/>
+    </row>
+    <row r="85" spans="1:15" ht="39" customHeight="1">
+      <c r="A85" s="167"/>
+      <c r="B85" s="149" t="s">
         <v>248</v>
       </c>
-      <c r="C85" s="158"/>
-      <c r="D85" s="158"/>
-      <c r="E85" s="158"/>
-      <c r="F85" s="158"/>
-      <c r="G85" s="158"/>
-      <c r="H85" s="158"/>
-      <c r="I85" s="158"/>
-      <c r="J85" s="158"/>
-      <c r="K85" s="158"/>
-      <c r="L85" s="158"/>
-      <c r="M85" s="158"/>
-      <c r="N85" s="158"/>
-      <c r="O85" s="195"/>
-    </row>
-    <row r="86" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="136"/>
-      <c r="B86" s="194"/>
-      <c r="C86" s="158"/>
-      <c r="D86" s="158"/>
-      <c r="E86" s="158"/>
-      <c r="F86" s="158"/>
-      <c r="G86" s="158"/>
-      <c r="H86" s="158"/>
-      <c r="I86" s="158"/>
-      <c r="J86" s="158"/>
-      <c r="K86" s="158"/>
-      <c r="L86" s="158"/>
-      <c r="M86" s="158"/>
-      <c r="N86" s="158"/>
-      <c r="O86" s="195"/>
-    </row>
-    <row r="87" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="136"/>
-      <c r="B87" s="403"/>
-      <c r="C87" s="404"/>
-      <c r="D87" s="404"/>
-      <c r="E87" s="404"/>
-      <c r="F87" s="404"/>
-      <c r="G87" s="404"/>
-      <c r="H87" s="404"/>
-      <c r="I87" s="404"/>
-      <c r="J87" s="404"/>
-      <c r="K87" s="404"/>
-      <c r="L87" s="404"/>
-      <c r="M87" s="404"/>
-      <c r="N87" s="404"/>
-      <c r="O87" s="405"/>
-    </row>
-    <row r="88" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="136"/>
-      <c r="B88" s="368" t="s">
+      <c r="C85" s="150"/>
+      <c r="D85" s="150"/>
+      <c r="E85" s="150"/>
+      <c r="F85" s="150"/>
+      <c r="G85" s="150"/>
+      <c r="H85" s="150"/>
+      <c r="I85" s="150"/>
+      <c r="J85" s="150"/>
+      <c r="K85" s="150"/>
+      <c r="L85" s="150"/>
+      <c r="M85" s="150"/>
+      <c r="N85" s="150"/>
+      <c r="O85" s="151"/>
+    </row>
+    <row r="86" spans="1:15" ht="39" customHeight="1">
+      <c r="A86" s="167"/>
+      <c r="B86" s="149"/>
+      <c r="C86" s="150"/>
+      <c r="D86" s="150"/>
+      <c r="E86" s="150"/>
+      <c r="F86" s="150"/>
+      <c r="G86" s="150"/>
+      <c r="H86" s="150"/>
+      <c r="I86" s="150"/>
+      <c r="J86" s="150"/>
+      <c r="K86" s="150"/>
+      <c r="L86" s="150"/>
+      <c r="M86" s="150"/>
+      <c r="N86" s="150"/>
+      <c r="O86" s="151"/>
+    </row>
+    <row r="87" spans="1:15" ht="39" customHeight="1">
+      <c r="A87" s="167"/>
+      <c r="B87" s="152"/>
+      <c r="C87" s="153"/>
+      <c r="D87" s="153"/>
+      <c r="E87" s="153"/>
+      <c r="F87" s="153"/>
+      <c r="G87" s="153"/>
+      <c r="H87" s="153"/>
+      <c r="I87" s="153"/>
+      <c r="J87" s="153"/>
+      <c r="K87" s="153"/>
+      <c r="L87" s="153"/>
+      <c r="M87" s="153"/>
+      <c r="N87" s="153"/>
+      <c r="O87" s="154"/>
+    </row>
+    <row r="88" spans="1:15" ht="21" customHeight="1">
+      <c r="A88" s="167"/>
+      <c r="B88" s="216" t="s">
         <v>134</v>
       </c>
-      <c r="C88" s="369"/>
-      <c r="D88" s="369"/>
-      <c r="E88" s="369"/>
-      <c r="F88" s="369"/>
-      <c r="G88" s="369"/>
-      <c r="H88" s="369"/>
-      <c r="I88" s="369"/>
-      <c r="J88" s="369"/>
-      <c r="K88" s="369"/>
-      <c r="L88" s="369"/>
-      <c r="M88" s="369"/>
-      <c r="N88" s="369"/>
-      <c r="O88" s="370"/>
-    </row>
-    <row r="89" spans="1:15" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="151"/>
-      <c r="B89" s="196"/>
-      <c r="C89" s="406"/>
-      <c r="D89" s="406"/>
-      <c r="E89" s="406"/>
-      <c r="F89" s="406"/>
-      <c r="G89" s="406"/>
-      <c r="H89" s="406"/>
-      <c r="I89" s="406"/>
-      <c r="J89" s="406"/>
-      <c r="K89" s="406"/>
-      <c r="L89" s="406"/>
-      <c r="M89" s="406"/>
-      <c r="N89" s="406"/>
-      <c r="O89" s="407"/>
-    </row>
-    <row r="90" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="150" t="s">
+      <c r="C88" s="217"/>
+      <c r="D88" s="217"/>
+      <c r="E88" s="217"/>
+      <c r="F88" s="217"/>
+      <c r="G88" s="217"/>
+      <c r="H88" s="217"/>
+      <c r="I88" s="217"/>
+      <c r="J88" s="217"/>
+      <c r="K88" s="217"/>
+      <c r="L88" s="217"/>
+      <c r="M88" s="217"/>
+      <c r="N88" s="217"/>
+      <c r="O88" s="218"/>
+    </row>
+    <row r="89" spans="1:15" ht="39" customHeight="1" thickBot="1">
+      <c r="A89" s="168"/>
+      <c r="B89" s="155"/>
+      <c r="C89" s="156"/>
+      <c r="D89" s="156"/>
+      <c r="E89" s="156"/>
+      <c r="F89" s="156"/>
+      <c r="G89" s="156"/>
+      <c r="H89" s="156"/>
+      <c r="I89" s="156"/>
+      <c r="J89" s="156"/>
+      <c r="K89" s="156"/>
+      <c r="L89" s="156"/>
+      <c r="M89" s="156"/>
+      <c r="N89" s="156"/>
+      <c r="O89" s="157"/>
+    </row>
+    <row r="90" spans="1:15" ht="39" customHeight="1">
+      <c r="A90" s="179" t="s">
         <v>169</v>
       </c>
-      <c r="B90" s="264" t="s">
+      <c r="B90" s="189" t="s">
         <v>237</v>
       </c>
-      <c r="C90" s="265"/>
-      <c r="D90" s="265"/>
-      <c r="E90" s="265"/>
-      <c r="F90" s="265"/>
-      <c r="G90" s="265"/>
-      <c r="H90" s="265"/>
-      <c r="I90" s="265"/>
-      <c r="J90" s="265"/>
-      <c r="K90" s="265"/>
-      <c r="L90" s="265"/>
-      <c r="M90" s="265"/>
-      <c r="N90" s="265"/>
-      <c r="O90" s="266"/>
-    </row>
-    <row r="91" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="136"/>
-      <c r="B91" s="194"/>
-      <c r="C91" s="158"/>
-      <c r="D91" s="158"/>
-      <c r="E91" s="158"/>
-      <c r="F91" s="158"/>
-      <c r="G91" s="158"/>
-      <c r="H91" s="158"/>
-      <c r="I91" s="158"/>
-      <c r="J91" s="158"/>
-      <c r="K91" s="158"/>
-      <c r="L91" s="158"/>
-      <c r="M91" s="158"/>
-      <c r="N91" s="158"/>
-      <c r="O91" s="195"/>
-    </row>
-    <row r="92" spans="1:15" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="151"/>
-      <c r="B92" s="196"/>
-      <c r="C92" s="185"/>
-      <c r="D92" s="185"/>
-      <c r="E92" s="185"/>
-      <c r="F92" s="185"/>
-      <c r="G92" s="185"/>
-      <c r="H92" s="185"/>
-      <c r="I92" s="185"/>
-      <c r="J92" s="185"/>
-      <c r="K92" s="185"/>
-      <c r="L92" s="185"/>
-      <c r="M92" s="185"/>
-      <c r="N92" s="185"/>
-      <c r="O92" s="197"/>
-    </row>
-    <row r="93" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="150" t="s">
+      <c r="C90" s="190"/>
+      <c r="D90" s="190"/>
+      <c r="E90" s="190"/>
+      <c r="F90" s="190"/>
+      <c r="G90" s="190"/>
+      <c r="H90" s="190"/>
+      <c r="I90" s="190"/>
+      <c r="J90" s="190"/>
+      <c r="K90" s="190"/>
+      <c r="L90" s="190"/>
+      <c r="M90" s="190"/>
+      <c r="N90" s="190"/>
+      <c r="O90" s="191"/>
+    </row>
+    <row r="91" spans="1:15" ht="39" customHeight="1">
+      <c r="A91" s="167"/>
+      <c r="B91" s="149"/>
+      <c r="C91" s="150"/>
+      <c r="D91" s="150"/>
+      <c r="E91" s="150"/>
+      <c r="F91" s="150"/>
+      <c r="G91" s="150"/>
+      <c r="H91" s="150"/>
+      <c r="I91" s="150"/>
+      <c r="J91" s="150"/>
+      <c r="K91" s="150"/>
+      <c r="L91" s="150"/>
+      <c r="M91" s="150"/>
+      <c r="N91" s="150"/>
+      <c r="O91" s="151"/>
+    </row>
+    <row r="92" spans="1:15" ht="39" customHeight="1" thickBot="1">
+      <c r="A92" s="168"/>
+      <c r="B92" s="155"/>
+      <c r="C92" s="192"/>
+      <c r="D92" s="192"/>
+      <c r="E92" s="192"/>
+      <c r="F92" s="192"/>
+      <c r="G92" s="192"/>
+      <c r="H92" s="192"/>
+      <c r="I92" s="192"/>
+      <c r="J92" s="192"/>
+      <c r="K92" s="192"/>
+      <c r="L92" s="192"/>
+      <c r="M92" s="192"/>
+      <c r="N92" s="192"/>
+      <c r="O92" s="193"/>
+    </row>
+    <row r="93" spans="1:15" ht="39" customHeight="1">
+      <c r="A93" s="179" t="s">
         <v>170</v>
       </c>
-      <c r="B93" s="264" t="s">
+      <c r="B93" s="189" t="s">
         <v>242</v>
       </c>
-      <c r="C93" s="265"/>
-      <c r="D93" s="265"/>
-      <c r="E93" s="265"/>
-      <c r="F93" s="265"/>
-      <c r="G93" s="265"/>
-      <c r="H93" s="265"/>
-      <c r="I93" s="265"/>
-      <c r="J93" s="265"/>
-      <c r="K93" s="265"/>
-      <c r="L93" s="265"/>
-      <c r="M93" s="265"/>
-      <c r="N93" s="265"/>
-      <c r="O93" s="266"/>
-    </row>
-    <row r="94" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="165"/>
-      <c r="B94" s="194"/>
-      <c r="C94" s="158"/>
-      <c r="D94" s="158"/>
-      <c r="E94" s="158"/>
-      <c r="F94" s="158"/>
-      <c r="G94" s="158"/>
-      <c r="H94" s="158"/>
-      <c r="I94" s="158"/>
-      <c r="J94" s="158"/>
-      <c r="K94" s="158"/>
-      <c r="L94" s="158"/>
-      <c r="M94" s="158"/>
-      <c r="N94" s="158"/>
-      <c r="O94" s="195"/>
-    </row>
-    <row r="95" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="165"/>
-      <c r="B95" s="194"/>
-      <c r="C95" s="158"/>
-      <c r="D95" s="158"/>
-      <c r="E95" s="158"/>
-      <c r="F95" s="158"/>
-      <c r="G95" s="158"/>
-      <c r="H95" s="158"/>
-      <c r="I95" s="158"/>
-      <c r="J95" s="158"/>
-      <c r="K95" s="158"/>
-      <c r="L95" s="158"/>
-      <c r="M95" s="158"/>
-      <c r="N95" s="158"/>
-      <c r="O95" s="195"/>
-    </row>
-    <row r="96" spans="1:15" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="166"/>
-      <c r="B96" s="196"/>
-      <c r="C96" s="185"/>
-      <c r="D96" s="185"/>
-      <c r="E96" s="185"/>
-      <c r="F96" s="185"/>
-      <c r="G96" s="185"/>
-      <c r="H96" s="185"/>
-      <c r="I96" s="185"/>
-      <c r="J96" s="185"/>
-      <c r="K96" s="185"/>
-      <c r="L96" s="185"/>
-      <c r="M96" s="185"/>
-      <c r="N96" s="185"/>
-      <c r="O96" s="197"/>
-    </row>
-    <row r="97" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="150" t="s">
+      <c r="C93" s="190"/>
+      <c r="D93" s="190"/>
+      <c r="E93" s="190"/>
+      <c r="F93" s="190"/>
+      <c r="G93" s="190"/>
+      <c r="H93" s="190"/>
+      <c r="I93" s="190"/>
+      <c r="J93" s="190"/>
+      <c r="K93" s="190"/>
+      <c r="L93" s="190"/>
+      <c r="M93" s="190"/>
+      <c r="N93" s="190"/>
+      <c r="O93" s="191"/>
+    </row>
+    <row r="94" spans="1:15" ht="39" customHeight="1">
+      <c r="A94" s="194"/>
+      <c r="B94" s="149"/>
+      <c r="C94" s="150"/>
+      <c r="D94" s="150"/>
+      <c r="E94" s="150"/>
+      <c r="F94" s="150"/>
+      <c r="G94" s="150"/>
+      <c r="H94" s="150"/>
+      <c r="I94" s="150"/>
+      <c r="J94" s="150"/>
+      <c r="K94" s="150"/>
+      <c r="L94" s="150"/>
+      <c r="M94" s="150"/>
+      <c r="N94" s="150"/>
+      <c r="O94" s="151"/>
+    </row>
+    <row r="95" spans="1:15" ht="39" customHeight="1">
+      <c r="A95" s="194"/>
+      <c r="B95" s="149"/>
+      <c r="C95" s="150"/>
+      <c r="D95" s="150"/>
+      <c r="E95" s="150"/>
+      <c r="F95" s="150"/>
+      <c r="G95" s="150"/>
+      <c r="H95" s="150"/>
+      <c r="I95" s="150"/>
+      <c r="J95" s="150"/>
+      <c r="K95" s="150"/>
+      <c r="L95" s="150"/>
+      <c r="M95" s="150"/>
+      <c r="N95" s="150"/>
+      <c r="O95" s="151"/>
+    </row>
+    <row r="96" spans="1:15" ht="39" customHeight="1" thickBot="1">
+      <c r="A96" s="195"/>
+      <c r="B96" s="155"/>
+      <c r="C96" s="192"/>
+      <c r="D96" s="192"/>
+      <c r="E96" s="192"/>
+      <c r="F96" s="192"/>
+      <c r="G96" s="192"/>
+      <c r="H96" s="192"/>
+      <c r="I96" s="192"/>
+      <c r="J96" s="192"/>
+      <c r="K96" s="192"/>
+      <c r="L96" s="192"/>
+      <c r="M96" s="192"/>
+      <c r="N96" s="192"/>
+      <c r="O96" s="193"/>
+    </row>
+    <row r="97" spans="1:15" ht="14.1" customHeight="1">
+      <c r="A97" s="179" t="s">
         <v>182</v>
       </c>
-      <c r="B97" s="191" t="s">
+      <c r="B97" s="323" t="s">
         <v>121</v>
       </c>
-      <c r="C97" s="192"/>
-      <c r="D97" s="192"/>
-      <c r="E97" s="192"/>
-      <c r="F97" s="192"/>
-      <c r="G97" s="192"/>
-      <c r="H97" s="192"/>
-      <c r="I97" s="192"/>
-      <c r="J97" s="192"/>
-      <c r="K97" s="192"/>
-      <c r="L97" s="192"/>
-      <c r="M97" s="192"/>
-      <c r="N97" s="192"/>
-      <c r="O97" s="193"/>
-    </row>
-    <row r="98" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="136"/>
-      <c r="B98" s="194" t="s">
+      <c r="C97" s="324"/>
+      <c r="D97" s="324"/>
+      <c r="E97" s="324"/>
+      <c r="F97" s="324"/>
+      <c r="G97" s="324"/>
+      <c r="H97" s="324"/>
+      <c r="I97" s="324"/>
+      <c r="J97" s="324"/>
+      <c r="K97" s="324"/>
+      <c r="L97" s="324"/>
+      <c r="M97" s="324"/>
+      <c r="N97" s="324"/>
+      <c r="O97" s="325"/>
+    </row>
+    <row r="98" spans="1:15" ht="45" customHeight="1">
+      <c r="A98" s="167"/>
+      <c r="B98" s="149" t="s">
         <v>243</v>
       </c>
-      <c r="C98" s="158"/>
-      <c r="D98" s="158"/>
-      <c r="E98" s="158"/>
-      <c r="F98" s="158"/>
-      <c r="G98" s="158"/>
-      <c r="H98" s="158"/>
-      <c r="I98" s="158"/>
-      <c r="J98" s="158"/>
-      <c r="K98" s="158"/>
-      <c r="L98" s="158"/>
-      <c r="M98" s="158"/>
-      <c r="N98" s="158"/>
-      <c r="O98" s="195"/>
-    </row>
-    <row r="99" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="136"/>
-      <c r="B99" s="194"/>
-      <c r="C99" s="158"/>
-      <c r="D99" s="158"/>
-      <c r="E99" s="158"/>
-      <c r="F99" s="158"/>
-      <c r="G99" s="158"/>
-      <c r="H99" s="158"/>
-      <c r="I99" s="158"/>
-      <c r="J99" s="158"/>
-      <c r="K99" s="158"/>
-      <c r="L99" s="158"/>
-      <c r="M99" s="158"/>
-      <c r="N99" s="158"/>
-      <c r="O99" s="195"/>
-    </row>
-    <row r="100" spans="1:15" ht="53" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="136"/>
-      <c r="B100" s="196"/>
-      <c r="C100" s="185"/>
-      <c r="D100" s="185"/>
-      <c r="E100" s="185"/>
-      <c r="F100" s="185"/>
-      <c r="G100" s="185"/>
-      <c r="H100" s="185"/>
-      <c r="I100" s="185"/>
-      <c r="J100" s="185"/>
-      <c r="K100" s="185"/>
-      <c r="L100" s="185"/>
-      <c r="M100" s="185"/>
-      <c r="N100" s="185"/>
-      <c r="O100" s="197"/>
-    </row>
-    <row r="101" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="136"/>
-      <c r="B101" s="191" t="s">
+      <c r="C98" s="150"/>
+      <c r="D98" s="150"/>
+      <c r="E98" s="150"/>
+      <c r="F98" s="150"/>
+      <c r="G98" s="150"/>
+      <c r="H98" s="150"/>
+      <c r="I98" s="150"/>
+      <c r="J98" s="150"/>
+      <c r="K98" s="150"/>
+      <c r="L98" s="150"/>
+      <c r="M98" s="150"/>
+      <c r="N98" s="150"/>
+      <c r="O98" s="151"/>
+    </row>
+    <row r="99" spans="1:15" ht="45" customHeight="1">
+      <c r="A99" s="167"/>
+      <c r="B99" s="149"/>
+      <c r="C99" s="150"/>
+      <c r="D99" s="150"/>
+      <c r="E99" s="150"/>
+      <c r="F99" s="150"/>
+      <c r="G99" s="150"/>
+      <c r="H99" s="150"/>
+      <c r="I99" s="150"/>
+      <c r="J99" s="150"/>
+      <c r="K99" s="150"/>
+      <c r="L99" s="150"/>
+      <c r="M99" s="150"/>
+      <c r="N99" s="150"/>
+      <c r="O99" s="151"/>
+    </row>
+    <row r="100" spans="1:15" ht="53.1" customHeight="1" thickBot="1">
+      <c r="A100" s="167"/>
+      <c r="B100" s="155"/>
+      <c r="C100" s="192"/>
+      <c r="D100" s="192"/>
+      <c r="E100" s="192"/>
+      <c r="F100" s="192"/>
+      <c r="G100" s="192"/>
+      <c r="H100" s="192"/>
+      <c r="I100" s="192"/>
+      <c r="J100" s="192"/>
+      <c r="K100" s="192"/>
+      <c r="L100" s="192"/>
+      <c r="M100" s="192"/>
+      <c r="N100" s="192"/>
+      <c r="O100" s="193"/>
+    </row>
+    <row r="101" spans="1:15" ht="15" customHeight="1">
+      <c r="A101" s="167"/>
+      <c r="B101" s="323" t="s">
         <v>122</v>
       </c>
-      <c r="C101" s="192"/>
-      <c r="D101" s="192"/>
-      <c r="E101" s="192"/>
-      <c r="F101" s="192"/>
-      <c r="G101" s="192"/>
-      <c r="H101" s="192"/>
-      <c r="I101" s="192"/>
-      <c r="J101" s="192"/>
-      <c r="K101" s="192"/>
-      <c r="L101" s="192"/>
-      <c r="M101" s="192"/>
-      <c r="N101" s="192"/>
-      <c r="O101" s="193"/>
-    </row>
-    <row r="102" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="136"/>
-      <c r="B102" s="194" t="s">
+      <c r="C101" s="324"/>
+      <c r="D101" s="324"/>
+      <c r="E101" s="324"/>
+      <c r="F101" s="324"/>
+      <c r="G101" s="324"/>
+      <c r="H101" s="324"/>
+      <c r="I101" s="324"/>
+      <c r="J101" s="324"/>
+      <c r="K101" s="324"/>
+      <c r="L101" s="324"/>
+      <c r="M101" s="324"/>
+      <c r="N101" s="324"/>
+      <c r="O101" s="325"/>
+    </row>
+    <row r="102" spans="1:15" ht="45" customHeight="1">
+      <c r="A102" s="167"/>
+      <c r="B102" s="149" t="s">
         <v>244</v>
       </c>
-      <c r="C102" s="158"/>
-      <c r="D102" s="158"/>
-      <c r="E102" s="158"/>
-      <c r="F102" s="158"/>
-      <c r="G102" s="158"/>
-      <c r="H102" s="158"/>
-      <c r="I102" s="158"/>
-      <c r="J102" s="158"/>
-      <c r="K102" s="158"/>
-      <c r="L102" s="158"/>
-      <c r="M102" s="158"/>
-      <c r="N102" s="158"/>
-      <c r="O102" s="195"/>
-    </row>
-    <row r="103" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="136"/>
-      <c r="B103" s="194"/>
-      <c r="C103" s="158"/>
-      <c r="D103" s="158"/>
-      <c r="E103" s="158"/>
-      <c r="F103" s="158"/>
-      <c r="G103" s="158"/>
-      <c r="H103" s="158"/>
-      <c r="I103" s="158"/>
-      <c r="J103" s="158"/>
-      <c r="K103" s="158"/>
-      <c r="L103" s="158"/>
-      <c r="M103" s="158"/>
-      <c r="N103" s="158"/>
-      <c r="O103" s="195"/>
-    </row>
-    <row r="104" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="136"/>
-      <c r="B104" s="196"/>
-      <c r="C104" s="185"/>
-      <c r="D104" s="185"/>
-      <c r="E104" s="185"/>
-      <c r="F104" s="185"/>
-      <c r="G104" s="185"/>
-      <c r="H104" s="185"/>
-      <c r="I104" s="185"/>
-      <c r="J104" s="185"/>
-      <c r="K104" s="185"/>
-      <c r="L104" s="185"/>
-      <c r="M104" s="185"/>
-      <c r="N104" s="185"/>
-      <c r="O104" s="197"/>
-    </row>
-    <row r="105" spans="1:15" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="136"/>
-      <c r="B105" s="416" t="s">
+      <c r="C102" s="150"/>
+      <c r="D102" s="150"/>
+      <c r="E102" s="150"/>
+      <c r="F102" s="150"/>
+      <c r="G102" s="150"/>
+      <c r="H102" s="150"/>
+      <c r="I102" s="150"/>
+      <c r="J102" s="150"/>
+      <c r="K102" s="150"/>
+      <c r="L102" s="150"/>
+      <c r="M102" s="150"/>
+      <c r="N102" s="150"/>
+      <c r="O102" s="151"/>
+    </row>
+    <row r="103" spans="1:15" ht="45" customHeight="1">
+      <c r="A103" s="167"/>
+      <c r="B103" s="149"/>
+      <c r="C103" s="150"/>
+      <c r="D103" s="150"/>
+      <c r="E103" s="150"/>
+      <c r="F103" s="150"/>
+      <c r="G103" s="150"/>
+      <c r="H103" s="150"/>
+      <c r="I103" s="150"/>
+      <c r="J103" s="150"/>
+      <c r="K103" s="150"/>
+      <c r="L103" s="150"/>
+      <c r="M103" s="150"/>
+      <c r="N103" s="150"/>
+      <c r="O103" s="151"/>
+    </row>
+    <row r="104" spans="1:15" ht="45" customHeight="1" thickBot="1">
+      <c r="A104" s="167"/>
+      <c r="B104" s="155"/>
+      <c r="C104" s="192"/>
+      <c r="D104" s="192"/>
+      <c r="E104" s="192"/>
+      <c r="F104" s="192"/>
+      <c r="G104" s="192"/>
+      <c r="H104" s="192"/>
+      <c r="I104" s="192"/>
+      <c r="J104" s="192"/>
+      <c r="K104" s="192"/>
+      <c r="L104" s="192"/>
+      <c r="M104" s="192"/>
+      <c r="N104" s="192"/>
+      <c r="O104" s="193"/>
+    </row>
+    <row r="105" spans="1:15" ht="13.35" customHeight="1">
+      <c r="A105" s="167"/>
+      <c r="B105" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="C105" s="417"/>
-      <c r="D105" s="417"/>
-      <c r="E105" s="417"/>
-      <c r="F105" s="417"/>
-      <c r="G105" s="417"/>
-      <c r="H105" s="417"/>
-      <c r="I105" s="417"/>
-      <c r="J105" s="417"/>
-      <c r="K105" s="417"/>
-      <c r="L105" s="417"/>
-      <c r="M105" s="417"/>
-      <c r="N105" s="417"/>
-      <c r="O105" s="418"/>
-    </row>
-    <row r="106" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="136"/>
-      <c r="B106" s="194" t="s">
+      <c r="C105" s="174"/>
+      <c r="D105" s="174"/>
+      <c r="E105" s="174"/>
+      <c r="F105" s="174"/>
+      <c r="G105" s="174"/>
+      <c r="H105" s="174"/>
+      <c r="I105" s="174"/>
+      <c r="J105" s="174"/>
+      <c r="K105" s="174"/>
+      <c r="L105" s="174"/>
+      <c r="M105" s="174"/>
+      <c r="N105" s="174"/>
+      <c r="O105" s="175"/>
+    </row>
+    <row r="106" spans="1:15" ht="45" customHeight="1">
+      <c r="A106" s="167"/>
+      <c r="B106" s="149" t="s">
         <v>250</v>
       </c>
-      <c r="C106" s="158"/>
-      <c r="D106" s="158"/>
-      <c r="E106" s="158"/>
-      <c r="F106" s="158"/>
-      <c r="G106" s="158"/>
-      <c r="H106" s="158"/>
-      <c r="I106" s="158"/>
-      <c r="J106" s="158"/>
-      <c r="K106" s="158"/>
-      <c r="L106" s="158"/>
-      <c r="M106" s="158"/>
-      <c r="N106" s="158"/>
-      <c r="O106" s="195"/>
-    </row>
-    <row r="107" spans="1:15" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="136"/>
-      <c r="B107" s="194"/>
-      <c r="C107" s="158"/>
-      <c r="D107" s="158"/>
-      <c r="E107" s="158"/>
-      <c r="F107" s="158"/>
-      <c r="G107" s="158"/>
-      <c r="H107" s="158"/>
-      <c r="I107" s="158"/>
-      <c r="J107" s="158"/>
-      <c r="K107" s="158"/>
-      <c r="L107" s="158"/>
-      <c r="M107" s="158"/>
-      <c r="N107" s="158"/>
-      <c r="O107" s="195"/>
-    </row>
-    <row r="108" spans="1:15" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="151"/>
-      <c r="B108" s="196"/>
-      <c r="C108" s="185"/>
-      <c r="D108" s="185"/>
-      <c r="E108" s="185"/>
-      <c r="F108" s="185"/>
-      <c r="G108" s="185"/>
-      <c r="H108" s="185"/>
-      <c r="I108" s="185"/>
-      <c r="J108" s="185"/>
-      <c r="K108" s="185"/>
-      <c r="L108" s="185"/>
-      <c r="M108" s="185"/>
-      <c r="N108" s="185"/>
-      <c r="O108" s="197"/>
-    </row>
-    <row r="109" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="150" t="s">
+      <c r="C106" s="150"/>
+      <c r="D106" s="150"/>
+      <c r="E106" s="150"/>
+      <c r="F106" s="150"/>
+      <c r="G106" s="150"/>
+      <c r="H106" s="150"/>
+      <c r="I106" s="150"/>
+      <c r="J106" s="150"/>
+      <c r="K106" s="150"/>
+      <c r="L106" s="150"/>
+      <c r="M106" s="150"/>
+      <c r="N106" s="150"/>
+      <c r="O106" s="151"/>
+    </row>
+    <row r="107" spans="1:15" ht="53.1" customHeight="1">
+      <c r="A107" s="167"/>
+      <c r="B107" s="149"/>
+      <c r="C107" s="150"/>
+      <c r="D107" s="150"/>
+      <c r="E107" s="150"/>
+      <c r="F107" s="150"/>
+      <c r="G107" s="150"/>
+      <c r="H107" s="150"/>
+      <c r="I107" s="150"/>
+      <c r="J107" s="150"/>
+      <c r="K107" s="150"/>
+      <c r="L107" s="150"/>
+      <c r="M107" s="150"/>
+      <c r="N107" s="150"/>
+      <c r="O107" s="151"/>
+    </row>
+    <row r="108" spans="1:15" ht="96" customHeight="1" thickBot="1">
+      <c r="A108" s="168"/>
+      <c r="B108" s="155"/>
+      <c r="C108" s="192"/>
+      <c r="D108" s="192"/>
+      <c r="E108" s="192"/>
+      <c r="F108" s="192"/>
+      <c r="G108" s="192"/>
+      <c r="H108" s="192"/>
+      <c r="I108" s="192"/>
+      <c r="J108" s="192"/>
+      <c r="K108" s="192"/>
+      <c r="L108" s="192"/>
+      <c r="M108" s="192"/>
+      <c r="N108" s="192"/>
+      <c r="O108" s="193"/>
+    </row>
+    <row r="109" spans="1:15" ht="21" customHeight="1">
+      <c r="A109" s="179" t="s">
         <v>183</v>
       </c>
-      <c r="B109" s="212" t="s">
+      <c r="B109" s="395" t="s">
         <v>249</v>
       </c>
-      <c r="C109" s="213"/>
-      <c r="D109" s="213"/>
-      <c r="E109" s="213"/>
-      <c r="F109" s="213"/>
-      <c r="G109" s="213"/>
-      <c r="H109" s="213"/>
-      <c r="I109" s="213"/>
-      <c r="J109" s="213"/>
-      <c r="K109" s="213"/>
-      <c r="L109" s="213"/>
-      <c r="M109" s="213"/>
-      <c r="N109" s="213"/>
-      <c r="O109" s="214"/>
-    </row>
-    <row r="110" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="136"/>
-      <c r="B110" s="215"/>
-      <c r="C110" s="216"/>
-      <c r="D110" s="216"/>
-      <c r="E110" s="216"/>
-      <c r="F110" s="216"/>
-      <c r="G110" s="216"/>
-      <c r="H110" s="216"/>
-      <c r="I110" s="216"/>
-      <c r="J110" s="216"/>
-      <c r="K110" s="216"/>
-      <c r="L110" s="216"/>
-      <c r="M110" s="216"/>
-      <c r="N110" s="216"/>
-      <c r="O110" s="217"/>
-    </row>
-    <row r="111" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="136"/>
-      <c r="B111" s="215"/>
-      <c r="C111" s="216"/>
-      <c r="D111" s="216"/>
-      <c r="E111" s="216"/>
-      <c r="F111" s="216"/>
-      <c r="G111" s="216"/>
-      <c r="H111" s="216"/>
-      <c r="I111" s="216"/>
-      <c r="J111" s="216"/>
-      <c r="K111" s="216"/>
-      <c r="L111" s="216"/>
-      <c r="M111" s="216"/>
-      <c r="N111" s="216"/>
-      <c r="O111" s="217"/>
-    </row>
-    <row r="112" spans="1:15" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="151"/>
-      <c r="B112" s="218"/>
-      <c r="C112" s="219"/>
-      <c r="D112" s="219"/>
-      <c r="E112" s="219"/>
-      <c r="F112" s="219"/>
-      <c r="G112" s="219"/>
-      <c r="H112" s="219"/>
-      <c r="I112" s="219"/>
-      <c r="J112" s="219"/>
-      <c r="K112" s="219"/>
-      <c r="L112" s="219"/>
-      <c r="M112" s="219"/>
-      <c r="N112" s="219"/>
-      <c r="O112" s="220"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A113" s="210" t="s">
+      <c r="C109" s="396"/>
+      <c r="D109" s="396"/>
+      <c r="E109" s="396"/>
+      <c r="F109" s="396"/>
+      <c r="G109" s="396"/>
+      <c r="H109" s="396"/>
+      <c r="I109" s="396"/>
+      <c r="J109" s="396"/>
+      <c r="K109" s="396"/>
+      <c r="L109" s="396"/>
+      <c r="M109" s="396"/>
+      <c r="N109" s="396"/>
+      <c r="O109" s="397"/>
+    </row>
+    <row r="110" spans="1:15" ht="21" customHeight="1">
+      <c r="A110" s="167"/>
+      <c r="B110" s="398"/>
+      <c r="C110" s="399"/>
+      <c r="D110" s="399"/>
+      <c r="E110" s="399"/>
+      <c r="F110" s="399"/>
+      <c r="G110" s="399"/>
+      <c r="H110" s="399"/>
+      <c r="I110" s="399"/>
+      <c r="J110" s="399"/>
+      <c r="K110" s="399"/>
+      <c r="L110" s="399"/>
+      <c r="M110" s="399"/>
+      <c r="N110" s="399"/>
+      <c r="O110" s="400"/>
+    </row>
+    <row r="111" spans="1:15" ht="21" customHeight="1">
+      <c r="A111" s="167"/>
+      <c r="B111" s="398"/>
+      <c r="C111" s="399"/>
+      <c r="D111" s="399"/>
+      <c r="E111" s="399"/>
+      <c r="F111" s="399"/>
+      <c r="G111" s="399"/>
+      <c r="H111" s="399"/>
+      <c r="I111" s="399"/>
+      <c r="J111" s="399"/>
+      <c r="K111" s="399"/>
+      <c r="L111" s="399"/>
+      <c r="M111" s="399"/>
+      <c r="N111" s="399"/>
+      <c r="O111" s="400"/>
+    </row>
+    <row r="112" spans="1:15" ht="30.95" customHeight="1" thickBot="1">
+      <c r="A112" s="168"/>
+      <c r="B112" s="401"/>
+      <c r="C112" s="402"/>
+      <c r="D112" s="402"/>
+      <c r="E112" s="402"/>
+      <c r="F112" s="402"/>
+      <c r="G112" s="402"/>
+      <c r="H112" s="402"/>
+      <c r="I112" s="402"/>
+      <c r="J112" s="402"/>
+      <c r="K112" s="402"/>
+      <c r="L112" s="402"/>
+      <c r="M112" s="402"/>
+      <c r="N112" s="402"/>
+      <c r="O112" s="403"/>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" s="393" t="s">
         <v>106</v>
       </c>
-      <c r="B113" s="213" t="s">
+      <c r="B113" s="396" t="s">
         <v>241</v>
       </c>
-      <c r="C113" s="213"/>
-      <c r="D113" s="213"/>
-      <c r="E113" s="213"/>
-      <c r="F113" s="213"/>
-      <c r="G113" s="213"/>
-      <c r="H113" s="213"/>
-      <c r="I113" s="213"/>
-      <c r="J113" s="213"/>
-      <c r="K113" s="213"/>
-      <c r="L113" s="213"/>
-      <c r="M113" s="213"/>
-      <c r="N113" s="213"/>
-      <c r="O113" s="214"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A114" s="165"/>
-      <c r="B114" s="216"/>
-      <c r="C114" s="216"/>
-      <c r="D114" s="216"/>
-      <c r="E114" s="216"/>
-      <c r="F114" s="216"/>
-      <c r="G114" s="216"/>
-      <c r="H114" s="216"/>
-      <c r="I114" s="216"/>
-      <c r="J114" s="216"/>
-      <c r="K114" s="216"/>
-      <c r="L114" s="216"/>
-      <c r="M114" s="216"/>
-      <c r="N114" s="216"/>
-      <c r="O114" s="217"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A115" s="165"/>
-      <c r="B115" s="216"/>
-      <c r="C115" s="216"/>
-      <c r="D115" s="216"/>
-      <c r="E115" s="216"/>
-      <c r="F115" s="216"/>
-      <c r="G115" s="216"/>
-      <c r="H115" s="216"/>
-      <c r="I115" s="216"/>
-      <c r="J115" s="216"/>
-      <c r="K115" s="216"/>
-      <c r="L115" s="216"/>
-      <c r="M115" s="216"/>
-      <c r="N115" s="216"/>
-      <c r="O115" s="217"/>
-    </row>
-    <row r="116" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="211"/>
-      <c r="B116" s="221"/>
-      <c r="C116" s="221"/>
-      <c r="D116" s="221"/>
-      <c r="E116" s="221"/>
-      <c r="F116" s="221"/>
-      <c r="G116" s="221"/>
-      <c r="H116" s="221"/>
-      <c r="I116" s="221"/>
-      <c r="J116" s="221"/>
-      <c r="K116" s="221"/>
-      <c r="L116" s="221"/>
-      <c r="M116" s="221"/>
-      <c r="N116" s="221"/>
-      <c r="O116" s="222"/>
-    </row>
-    <row r="117" spans="1:15" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="396"/>
+      <c r="D113" s="396"/>
+      <c r="E113" s="396"/>
+      <c r="F113" s="396"/>
+      <c r="G113" s="396"/>
+      <c r="H113" s="396"/>
+      <c r="I113" s="396"/>
+      <c r="J113" s="396"/>
+      <c r="K113" s="396"/>
+      <c r="L113" s="396"/>
+      <c r="M113" s="396"/>
+      <c r="N113" s="396"/>
+      <c r="O113" s="397"/>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" s="194"/>
+      <c r="B114" s="399"/>
+      <c r="C114" s="399"/>
+      <c r="D114" s="399"/>
+      <c r="E114" s="399"/>
+      <c r="F114" s="399"/>
+      <c r="G114" s="399"/>
+      <c r="H114" s="399"/>
+      <c r="I114" s="399"/>
+      <c r="J114" s="399"/>
+      <c r="K114" s="399"/>
+      <c r="L114" s="399"/>
+      <c r="M114" s="399"/>
+      <c r="N114" s="399"/>
+      <c r="O114" s="400"/>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" s="194"/>
+      <c r="B115" s="399"/>
+      <c r="C115" s="399"/>
+      <c r="D115" s="399"/>
+      <c r="E115" s="399"/>
+      <c r="F115" s="399"/>
+      <c r="G115" s="399"/>
+      <c r="H115" s="399"/>
+      <c r="I115" s="399"/>
+      <c r="J115" s="399"/>
+      <c r="K115" s="399"/>
+      <c r="L115" s="399"/>
+      <c r="M115" s="399"/>
+      <c r="N115" s="399"/>
+      <c r="O115" s="400"/>
+    </row>
+    <row r="116" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A116" s="394"/>
+      <c r="B116" s="404"/>
+      <c r="C116" s="404"/>
+      <c r="D116" s="404"/>
+      <c r="E116" s="404"/>
+      <c r="F116" s="404"/>
+      <c r="G116" s="404"/>
+      <c r="H116" s="404"/>
+      <c r="I116" s="404"/>
+      <c r="J116" s="404"/>
+      <c r="K116" s="404"/>
+      <c r="L116" s="404"/>
+      <c r="M116" s="404"/>
+      <c r="N116" s="404"/>
+      <c r="O116" s="405"/>
+    </row>
+    <row r="117" spans="1:15" ht="7.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A117" s="103"/>
       <c r="B117" s="104"/>
       <c r="C117" s="104"/>
@@ -8331,375 +8404,375 @@
       <c r="N117" s="104"/>
       <c r="O117" s="104"/>
     </row>
-    <row r="118" spans="1:15" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="135" t="s">
+    <row r="118" spans="1:15" ht="21" customHeight="1" thickTop="1">
+      <c r="A118" s="166" t="s">
         <v>181</v>
       </c>
-      <c r="B118" s="201" t="s">
+      <c r="B118" s="384" t="s">
         <v>201</v>
       </c>
-      <c r="C118" s="202"/>
-      <c r="D118" s="202"/>
-      <c r="E118" s="202"/>
-      <c r="F118" s="202"/>
-      <c r="G118" s="202"/>
-      <c r="H118" s="202"/>
-      <c r="I118" s="202"/>
-      <c r="J118" s="202"/>
-      <c r="K118" s="202"/>
-      <c r="L118" s="202"/>
-      <c r="M118" s="202"/>
-      <c r="N118" s="202"/>
-      <c r="O118" s="203"/>
-    </row>
-    <row r="119" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="136"/>
-      <c r="B119" s="204"/>
-      <c r="C119" s="205"/>
-      <c r="D119" s="205"/>
-      <c r="E119" s="205"/>
-      <c r="F119" s="205"/>
-      <c r="G119" s="205"/>
-      <c r="H119" s="205"/>
-      <c r="I119" s="205"/>
-      <c r="J119" s="205"/>
-      <c r="K119" s="205"/>
-      <c r="L119" s="205"/>
-      <c r="M119" s="205"/>
-      <c r="N119" s="205"/>
-      <c r="O119" s="206"/>
-    </row>
-    <row r="120" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="136"/>
-      <c r="B120" s="204"/>
-      <c r="C120" s="205"/>
-      <c r="D120" s="205"/>
-      <c r="E120" s="205"/>
-      <c r="F120" s="205"/>
-      <c r="G120" s="205"/>
-      <c r="H120" s="205"/>
-      <c r="I120" s="205"/>
-      <c r="J120" s="205"/>
-      <c r="K120" s="205"/>
-      <c r="L120" s="205"/>
-      <c r="M120" s="205"/>
-      <c r="N120" s="205"/>
-      <c r="O120" s="206"/>
-    </row>
-    <row r="121" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="136"/>
-      <c r="B121" s="204"/>
-      <c r="C121" s="205"/>
-      <c r="D121" s="205"/>
-      <c r="E121" s="205"/>
-      <c r="F121" s="205"/>
-      <c r="G121" s="205"/>
-      <c r="H121" s="205"/>
-      <c r="I121" s="205"/>
-      <c r="J121" s="205"/>
-      <c r="K121" s="205"/>
-      <c r="L121" s="205"/>
-      <c r="M121" s="205"/>
-      <c r="N121" s="205"/>
-      <c r="O121" s="206"/>
-    </row>
-    <row r="122" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="136"/>
-      <c r="B122" s="204"/>
-      <c r="C122" s="205"/>
-      <c r="D122" s="205"/>
-      <c r="E122" s="205"/>
-      <c r="F122" s="205"/>
-      <c r="G122" s="205"/>
-      <c r="H122" s="205"/>
-      <c r="I122" s="205"/>
-      <c r="J122" s="205"/>
-      <c r="K122" s="205"/>
-      <c r="L122" s="205"/>
-      <c r="M122" s="205"/>
-      <c r="N122" s="205"/>
-      <c r="O122" s="206"/>
-    </row>
-    <row r="123" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="136"/>
-      <c r="B123" s="204"/>
-      <c r="C123" s="205"/>
-      <c r="D123" s="205"/>
-      <c r="E123" s="205"/>
-      <c r="F123" s="205"/>
-      <c r="G123" s="205"/>
-      <c r="H123" s="205"/>
-      <c r="I123" s="205"/>
-      <c r="J123" s="205"/>
-      <c r="K123" s="205"/>
-      <c r="L123" s="205"/>
-      <c r="M123" s="205"/>
-      <c r="N123" s="205"/>
-      <c r="O123" s="206"/>
-    </row>
-    <row r="124" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="136"/>
-      <c r="B124" s="204"/>
-      <c r="C124" s="205"/>
-      <c r="D124" s="205"/>
-      <c r="E124" s="205"/>
-      <c r="F124" s="205"/>
-      <c r="G124" s="205"/>
-      <c r="H124" s="205"/>
-      <c r="I124" s="205"/>
-      <c r="J124" s="205"/>
-      <c r="K124" s="205"/>
-      <c r="L124" s="205"/>
-      <c r="M124" s="205"/>
-      <c r="N124" s="205"/>
-      <c r="O124" s="206"/>
-    </row>
-    <row r="125" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="136"/>
-      <c r="B125" s="204"/>
-      <c r="C125" s="205"/>
-      <c r="D125" s="205"/>
-      <c r="E125" s="205"/>
-      <c r="F125" s="205"/>
-      <c r="G125" s="205"/>
-      <c r="H125" s="205"/>
-      <c r="I125" s="205"/>
-      <c r="J125" s="205"/>
-      <c r="K125" s="205"/>
-      <c r="L125" s="205"/>
-      <c r="M125" s="205"/>
-      <c r="N125" s="205"/>
-      <c r="O125" s="206"/>
-    </row>
-    <row r="126" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="136"/>
-      <c r="B126" s="204"/>
-      <c r="C126" s="205"/>
-      <c r="D126" s="205"/>
-      <c r="E126" s="205"/>
-      <c r="F126" s="205"/>
-      <c r="G126" s="205"/>
-      <c r="H126" s="205"/>
-      <c r="I126" s="205"/>
-      <c r="J126" s="205"/>
-      <c r="K126" s="205"/>
-      <c r="L126" s="205"/>
-      <c r="M126" s="205"/>
-      <c r="N126" s="205"/>
-      <c r="O126" s="206"/>
-    </row>
-    <row r="127" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="136"/>
-      <c r="B127" s="204"/>
-      <c r="C127" s="205"/>
-      <c r="D127" s="205"/>
-      <c r="E127" s="205"/>
-      <c r="F127" s="205"/>
-      <c r="G127" s="205"/>
-      <c r="H127" s="205"/>
-      <c r="I127" s="205"/>
-      <c r="J127" s="205"/>
-      <c r="K127" s="205"/>
-      <c r="L127" s="205"/>
-      <c r="M127" s="205"/>
-      <c r="N127" s="205"/>
-      <c r="O127" s="206"/>
-    </row>
-    <row r="128" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="136"/>
-      <c r="B128" s="204"/>
-      <c r="C128" s="205"/>
-      <c r="D128" s="205"/>
-      <c r="E128" s="205"/>
-      <c r="F128" s="205"/>
-      <c r="G128" s="205"/>
-      <c r="H128" s="205"/>
-      <c r="I128" s="205"/>
-      <c r="J128" s="205"/>
-      <c r="K128" s="205"/>
-      <c r="L128" s="205"/>
-      <c r="M128" s="205"/>
-      <c r="N128" s="205"/>
-      <c r="O128" s="206"/>
-    </row>
-    <row r="129" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="136"/>
-      <c r="B129" s="204"/>
-      <c r="C129" s="205"/>
-      <c r="D129" s="205"/>
-      <c r="E129" s="205"/>
-      <c r="F129" s="205"/>
-      <c r="G129" s="205"/>
-      <c r="H129" s="205"/>
-      <c r="I129" s="205"/>
-      <c r="J129" s="205"/>
-      <c r="K129" s="205"/>
-      <c r="L129" s="205"/>
-      <c r="M129" s="205"/>
-      <c r="N129" s="205"/>
-      <c r="O129" s="206"/>
-    </row>
-    <row r="130" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="136"/>
-      <c r="B130" s="207"/>
-      <c r="C130" s="208"/>
-      <c r="D130" s="208"/>
-      <c r="E130" s="208"/>
-      <c r="F130" s="208"/>
-      <c r="G130" s="208"/>
-      <c r="H130" s="208"/>
-      <c r="I130" s="208"/>
-      <c r="J130" s="208"/>
-      <c r="K130" s="208"/>
-      <c r="L130" s="208"/>
-      <c r="M130" s="208"/>
-      <c r="N130" s="208"/>
-      <c r="O130" s="209"/>
-    </row>
-    <row r="131" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="150" t="s">
+      <c r="C118" s="385"/>
+      <c r="D118" s="385"/>
+      <c r="E118" s="385"/>
+      <c r="F118" s="385"/>
+      <c r="G118" s="385"/>
+      <c r="H118" s="385"/>
+      <c r="I118" s="385"/>
+      <c r="J118" s="385"/>
+      <c r="K118" s="385"/>
+      <c r="L118" s="385"/>
+      <c r="M118" s="385"/>
+      <c r="N118" s="385"/>
+      <c r="O118" s="386"/>
+    </row>
+    <row r="119" spans="1:15" ht="21" customHeight="1">
+      <c r="A119" s="167"/>
+      <c r="B119" s="387"/>
+      <c r="C119" s="388"/>
+      <c r="D119" s="388"/>
+      <c r="E119" s="388"/>
+      <c r="F119" s="388"/>
+      <c r="G119" s="388"/>
+      <c r="H119" s="388"/>
+      <c r="I119" s="388"/>
+      <c r="J119" s="388"/>
+      <c r="K119" s="388"/>
+      <c r="L119" s="388"/>
+      <c r="M119" s="388"/>
+      <c r="N119" s="388"/>
+      <c r="O119" s="389"/>
+    </row>
+    <row r="120" spans="1:15" ht="21" customHeight="1">
+      <c r="A120" s="167"/>
+      <c r="B120" s="387"/>
+      <c r="C120" s="388"/>
+      <c r="D120" s="388"/>
+      <c r="E120" s="388"/>
+      <c r="F120" s="388"/>
+      <c r="G120" s="388"/>
+      <c r="H120" s="388"/>
+      <c r="I120" s="388"/>
+      <c r="J120" s="388"/>
+      <c r="K120" s="388"/>
+      <c r="L120" s="388"/>
+      <c r="M120" s="388"/>
+      <c r="N120" s="388"/>
+      <c r="O120" s="389"/>
+    </row>
+    <row r="121" spans="1:15" ht="21" customHeight="1">
+      <c r="A121" s="167"/>
+      <c r="B121" s="387"/>
+      <c r="C121" s="388"/>
+      <c r="D121" s="388"/>
+      <c r="E121" s="388"/>
+      <c r="F121" s="388"/>
+      <c r="G121" s="388"/>
+      <c r="H121" s="388"/>
+      <c r="I121" s="388"/>
+      <c r="J121" s="388"/>
+      <c r="K121" s="388"/>
+      <c r="L121" s="388"/>
+      <c r="M121" s="388"/>
+      <c r="N121" s="388"/>
+      <c r="O121" s="389"/>
+    </row>
+    <row r="122" spans="1:15" ht="21" customHeight="1">
+      <c r="A122" s="167"/>
+      <c r="B122" s="387"/>
+      <c r="C122" s="388"/>
+      <c r="D122" s="388"/>
+      <c r="E122" s="388"/>
+      <c r="F122" s="388"/>
+      <c r="G122" s="388"/>
+      <c r="H122" s="388"/>
+      <c r="I122" s="388"/>
+      <c r="J122" s="388"/>
+      <c r="K122" s="388"/>
+      <c r="L122" s="388"/>
+      <c r="M122" s="388"/>
+      <c r="N122" s="388"/>
+      <c r="O122" s="389"/>
+    </row>
+    <row r="123" spans="1:15" ht="21" customHeight="1">
+      <c r="A123" s="167"/>
+      <c r="B123" s="387"/>
+      <c r="C123" s="388"/>
+      <c r="D123" s="388"/>
+      <c r="E123" s="388"/>
+      <c r="F123" s="388"/>
+      <c r="G123" s="388"/>
+      <c r="H123" s="388"/>
+      <c r="I123" s="388"/>
+      <c r="J123" s="388"/>
+      <c r="K123" s="388"/>
+      <c r="L123" s="388"/>
+      <c r="M123" s="388"/>
+      <c r="N123" s="388"/>
+      <c r="O123" s="389"/>
+    </row>
+    <row r="124" spans="1:15" ht="21" customHeight="1">
+      <c r="A124" s="167"/>
+      <c r="B124" s="387"/>
+      <c r="C124" s="388"/>
+      <c r="D124" s="388"/>
+      <c r="E124" s="388"/>
+      <c r="F124" s="388"/>
+      <c r="G124" s="388"/>
+      <c r="H124" s="388"/>
+      <c r="I124" s="388"/>
+      <c r="J124" s="388"/>
+      <c r="K124" s="388"/>
+      <c r="L124" s="388"/>
+      <c r="M124" s="388"/>
+      <c r="N124" s="388"/>
+      <c r="O124" s="389"/>
+    </row>
+    <row r="125" spans="1:15" ht="21" customHeight="1">
+      <c r="A125" s="167"/>
+      <c r="B125" s="387"/>
+      <c r="C125" s="388"/>
+      <c r="D125" s="388"/>
+      <c r="E125" s="388"/>
+      <c r="F125" s="388"/>
+      <c r="G125" s="388"/>
+      <c r="H125" s="388"/>
+      <c r="I125" s="388"/>
+      <c r="J125" s="388"/>
+      <c r="K125" s="388"/>
+      <c r="L125" s="388"/>
+      <c r="M125" s="388"/>
+      <c r="N125" s="388"/>
+      <c r="O125" s="389"/>
+    </row>
+    <row r="126" spans="1:15" ht="21" customHeight="1">
+      <c r="A126" s="167"/>
+      <c r="B126" s="387"/>
+      <c r="C126" s="388"/>
+      <c r="D126" s="388"/>
+      <c r="E126" s="388"/>
+      <c r="F126" s="388"/>
+      <c r="G126" s="388"/>
+      <c r="H126" s="388"/>
+      <c r="I126" s="388"/>
+      <c r="J126" s="388"/>
+      <c r="K126" s="388"/>
+      <c r="L126" s="388"/>
+      <c r="M126" s="388"/>
+      <c r="N126" s="388"/>
+      <c r="O126" s="389"/>
+    </row>
+    <row r="127" spans="1:15" ht="21" customHeight="1">
+      <c r="A127" s="167"/>
+      <c r="B127" s="387"/>
+      <c r="C127" s="388"/>
+      <c r="D127" s="388"/>
+      <c r="E127" s="388"/>
+      <c r="F127" s="388"/>
+      <c r="G127" s="388"/>
+      <c r="H127" s="388"/>
+      <c r="I127" s="388"/>
+      <c r="J127" s="388"/>
+      <c r="K127" s="388"/>
+      <c r="L127" s="388"/>
+      <c r="M127" s="388"/>
+      <c r="N127" s="388"/>
+      <c r="O127" s="389"/>
+    </row>
+    <row r="128" spans="1:15" ht="21" customHeight="1">
+      <c r="A128" s="167"/>
+      <c r="B128" s="387"/>
+      <c r="C128" s="388"/>
+      <c r="D128" s="388"/>
+      <c r="E128" s="388"/>
+      <c r="F128" s="388"/>
+      <c r="G128" s="388"/>
+      <c r="H128" s="388"/>
+      <c r="I128" s="388"/>
+      <c r="J128" s="388"/>
+      <c r="K128" s="388"/>
+      <c r="L128" s="388"/>
+      <c r="M128" s="388"/>
+      <c r="N128" s="388"/>
+      <c r="O128" s="389"/>
+    </row>
+    <row r="129" spans="1:15" ht="21" customHeight="1">
+      <c r="A129" s="167"/>
+      <c r="B129" s="387"/>
+      <c r="C129" s="388"/>
+      <c r="D129" s="388"/>
+      <c r="E129" s="388"/>
+      <c r="F129" s="388"/>
+      <c r="G129" s="388"/>
+      <c r="H129" s="388"/>
+      <c r="I129" s="388"/>
+      <c r="J129" s="388"/>
+      <c r="K129" s="388"/>
+      <c r="L129" s="388"/>
+      <c r="M129" s="388"/>
+      <c r="N129" s="388"/>
+      <c r="O129" s="389"/>
+    </row>
+    <row r="130" spans="1:15" ht="21" customHeight="1" thickBot="1">
+      <c r="A130" s="167"/>
+      <c r="B130" s="390"/>
+      <c r="C130" s="391"/>
+      <c r="D130" s="391"/>
+      <c r="E130" s="391"/>
+      <c r="F130" s="391"/>
+      <c r="G130" s="391"/>
+      <c r="H130" s="391"/>
+      <c r="I130" s="391"/>
+      <c r="J130" s="391"/>
+      <c r="K130" s="391"/>
+      <c r="L130" s="391"/>
+      <c r="M130" s="391"/>
+      <c r="N130" s="391"/>
+      <c r="O130" s="392"/>
+    </row>
+    <row r="131" spans="1:15" ht="18" customHeight="1">
+      <c r="A131" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="B131" s="179" t="s">
+      <c r="B131" s="219" t="s">
         <v>202</v>
       </c>
-      <c r="C131" s="371"/>
-      <c r="D131" s="371"/>
-      <c r="E131" s="371"/>
-      <c r="F131" s="371"/>
-      <c r="G131" s="371"/>
-      <c r="H131" s="371"/>
-      <c r="I131" s="371"/>
-      <c r="J131" s="371"/>
-      <c r="K131" s="371"/>
-      <c r="L131" s="371"/>
-      <c r="M131" s="371"/>
-      <c r="N131" s="371"/>
-      <c r="O131" s="372"/>
-    </row>
-    <row r="132" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="136"/>
-      <c r="B132" s="373"/>
-      <c r="C132" s="374"/>
-      <c r="D132" s="374"/>
-      <c r="E132" s="374"/>
-      <c r="F132" s="374"/>
-      <c r="G132" s="374"/>
-      <c r="H132" s="374"/>
-      <c r="I132" s="374"/>
-      <c r="J132" s="374"/>
-      <c r="K132" s="374"/>
-      <c r="L132" s="374"/>
-      <c r="M132" s="374"/>
-      <c r="N132" s="374"/>
-      <c r="O132" s="375"/>
-    </row>
-    <row r="133" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="136"/>
-      <c r="B133" s="373"/>
-      <c r="C133" s="374"/>
-      <c r="D133" s="374"/>
-      <c r="E133" s="374"/>
-      <c r="F133" s="374"/>
-      <c r="G133" s="374"/>
-      <c r="H133" s="374"/>
-      <c r="I133" s="374"/>
-      <c r="J133" s="374"/>
-      <c r="K133" s="374"/>
-      <c r="L133" s="374"/>
-      <c r="M133" s="374"/>
-      <c r="N133" s="374"/>
-      <c r="O133" s="375"/>
-    </row>
-    <row r="134" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="136"/>
-      <c r="B134" s="373"/>
-      <c r="C134" s="374"/>
-      <c r="D134" s="374"/>
-      <c r="E134" s="374"/>
-      <c r="F134" s="374"/>
-      <c r="G134" s="374"/>
-      <c r="H134" s="374"/>
-      <c r="I134" s="374"/>
-      <c r="J134" s="374"/>
-      <c r="K134" s="374"/>
-      <c r="L134" s="374"/>
-      <c r="M134" s="374"/>
-      <c r="N134" s="374"/>
-      <c r="O134" s="375"/>
-    </row>
-    <row r="135" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="136"/>
-      <c r="B135" s="373"/>
-      <c r="C135" s="374"/>
-      <c r="D135" s="374"/>
-      <c r="E135" s="374"/>
-      <c r="F135" s="374"/>
-      <c r="G135" s="374"/>
-      <c r="H135" s="374"/>
-      <c r="I135" s="374"/>
-      <c r="J135" s="374"/>
-      <c r="K135" s="374"/>
-      <c r="L135" s="374"/>
-      <c r="M135" s="374"/>
-      <c r="N135" s="374"/>
-      <c r="O135" s="375"/>
-    </row>
-    <row r="136" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="136"/>
-      <c r="B136" s="373"/>
-      <c r="C136" s="374"/>
-      <c r="D136" s="374"/>
-      <c r="E136" s="374"/>
-      <c r="F136" s="374"/>
-      <c r="G136" s="374"/>
-      <c r="H136" s="374"/>
-      <c r="I136" s="374"/>
-      <c r="J136" s="374"/>
-      <c r="K136" s="374"/>
-      <c r="L136" s="374"/>
-      <c r="M136" s="374"/>
-      <c r="N136" s="374"/>
-      <c r="O136" s="375"/>
-    </row>
-    <row r="137" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="136"/>
-      <c r="B137" s="373"/>
-      <c r="C137" s="374"/>
-      <c r="D137" s="374"/>
-      <c r="E137" s="374"/>
-      <c r="F137" s="374"/>
-      <c r="G137" s="374"/>
-      <c r="H137" s="374"/>
-      <c r="I137" s="374"/>
-      <c r="J137" s="374"/>
-      <c r="K137" s="374"/>
-      <c r="L137" s="374"/>
-      <c r="M137" s="374"/>
-      <c r="N137" s="374"/>
-      <c r="O137" s="375"/>
-    </row>
-    <row r="138" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="136"/>
-      <c r="B138" s="142" t="s">
+      <c r="C131" s="220"/>
+      <c r="D131" s="220"/>
+      <c r="E131" s="220"/>
+      <c r="F131" s="220"/>
+      <c r="G131" s="220"/>
+      <c r="H131" s="220"/>
+      <c r="I131" s="220"/>
+      <c r="J131" s="220"/>
+      <c r="K131" s="220"/>
+      <c r="L131" s="220"/>
+      <c r="M131" s="220"/>
+      <c r="N131" s="220"/>
+      <c r="O131" s="221"/>
+    </row>
+    <row r="132" spans="1:15" ht="18" customHeight="1">
+      <c r="A132" s="167"/>
+      <c r="B132" s="222"/>
+      <c r="C132" s="223"/>
+      <c r="D132" s="223"/>
+      <c r="E132" s="223"/>
+      <c r="F132" s="223"/>
+      <c r="G132" s="223"/>
+      <c r="H132" s="223"/>
+      <c r="I132" s="223"/>
+      <c r="J132" s="223"/>
+      <c r="K132" s="223"/>
+      <c r="L132" s="223"/>
+      <c r="M132" s="223"/>
+      <c r="N132" s="223"/>
+      <c r="O132" s="224"/>
+    </row>
+    <row r="133" spans="1:15" ht="18" customHeight="1">
+      <c r="A133" s="167"/>
+      <c r="B133" s="222"/>
+      <c r="C133" s="223"/>
+      <c r="D133" s="223"/>
+      <c r="E133" s="223"/>
+      <c r="F133" s="223"/>
+      <c r="G133" s="223"/>
+      <c r="H133" s="223"/>
+      <c r="I133" s="223"/>
+      <c r="J133" s="223"/>
+      <c r="K133" s="223"/>
+      <c r="L133" s="223"/>
+      <c r="M133" s="223"/>
+      <c r="N133" s="223"/>
+      <c r="O133" s="224"/>
+    </row>
+    <row r="134" spans="1:15" ht="18" customHeight="1">
+      <c r="A134" s="167"/>
+      <c r="B134" s="222"/>
+      <c r="C134" s="223"/>
+      <c r="D134" s="223"/>
+      <c r="E134" s="223"/>
+      <c r="F134" s="223"/>
+      <c r="G134" s="223"/>
+      <c r="H134" s="223"/>
+      <c r="I134" s="223"/>
+      <c r="J134" s="223"/>
+      <c r="K134" s="223"/>
+      <c r="L134" s="223"/>
+      <c r="M134" s="223"/>
+      <c r="N134" s="223"/>
+      <c r="O134" s="224"/>
+    </row>
+    <row r="135" spans="1:15" ht="18" customHeight="1">
+      <c r="A135" s="167"/>
+      <c r="B135" s="222"/>
+      <c r="C135" s="223"/>
+      <c r="D135" s="223"/>
+      <c r="E135" s="223"/>
+      <c r="F135" s="223"/>
+      <c r="G135" s="223"/>
+      <c r="H135" s="223"/>
+      <c r="I135" s="223"/>
+      <c r="J135" s="223"/>
+      <c r="K135" s="223"/>
+      <c r="L135" s="223"/>
+      <c r="M135" s="223"/>
+      <c r="N135" s="223"/>
+      <c r="O135" s="224"/>
+    </row>
+    <row r="136" spans="1:15" ht="18" customHeight="1">
+      <c r="A136" s="167"/>
+      <c r="B136" s="222"/>
+      <c r="C136" s="223"/>
+      <c r="D136" s="223"/>
+      <c r="E136" s="223"/>
+      <c r="F136" s="223"/>
+      <c r="G136" s="223"/>
+      <c r="H136" s="223"/>
+      <c r="I136" s="223"/>
+      <c r="J136" s="223"/>
+      <c r="K136" s="223"/>
+      <c r="L136" s="223"/>
+      <c r="M136" s="223"/>
+      <c r="N136" s="223"/>
+      <c r="O136" s="224"/>
+    </row>
+    <row r="137" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A137" s="167"/>
+      <c r="B137" s="222"/>
+      <c r="C137" s="223"/>
+      <c r="D137" s="223"/>
+      <c r="E137" s="223"/>
+      <c r="F137" s="223"/>
+      <c r="G137" s="223"/>
+      <c r="H137" s="223"/>
+      <c r="I137" s="223"/>
+      <c r="J137" s="223"/>
+      <c r="K137" s="223"/>
+      <c r="L137" s="223"/>
+      <c r="M137" s="223"/>
+      <c r="N137" s="223"/>
+      <c r="O137" s="224"/>
+    </row>
+    <row r="138" spans="1:15" ht="18" customHeight="1">
+      <c r="A138" s="167"/>
+      <c r="B138" s="414" t="s">
         <v>85</v>
       </c>
-      <c r="C138" s="142"/>
-      <c r="D138" s="142"/>
-      <c r="E138" s="142"/>
-      <c r="F138" s="142"/>
-      <c r="G138" s="142"/>
-      <c r="H138" s="142"/>
-      <c r="I138" s="142"/>
-      <c r="J138" s="142"/>
-      <c r="K138" s="142"/>
-      <c r="L138" s="142"/>
-      <c r="M138" s="142"/>
-      <c r="N138" s="142"/>
-      <c r="O138" s="143"/>
-    </row>
-    <row r="139" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="136"/>
+      <c r="C138" s="414"/>
+      <c r="D138" s="414"/>
+      <c r="E138" s="414"/>
+      <c r="F138" s="414"/>
+      <c r="G138" s="414"/>
+      <c r="H138" s="414"/>
+      <c r="I138" s="414"/>
+      <c r="J138" s="414"/>
+      <c r="K138" s="414"/>
+      <c r="L138" s="414"/>
+      <c r="M138" s="414"/>
+      <c r="N138" s="414"/>
+      <c r="O138" s="415"/>
+    </row>
+    <row r="139" spans="1:15" ht="4.5" customHeight="1">
+      <c r="A139" s="167"/>
       <c r="B139" s="105"/>
       <c r="C139" s="84"/>
       <c r="D139" s="84"/>
@@ -8715,59 +8788,59 @@
       <c r="N139" s="84"/>
       <c r="O139" s="80"/>
     </row>
-    <row r="140" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="152"/>
+    <row r="140" spans="1:15" ht="18" customHeight="1" thickBot="1">
+      <c r="A140" s="326"/>
       <c r="B140" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="C140" s="376" t="s">
+      <c r="C140" s="225" t="s">
         <v>38</v>
       </c>
-      <c r="D140" s="376"/>
-      <c r="E140" s="376"/>
-      <c r="F140" s="376"/>
-      <c r="G140" s="376"/>
-      <c r="H140" s="376"/>
-      <c r="I140" s="376"/>
-      <c r="J140" s="376"/>
-      <c r="K140" s="376"/>
-      <c r="L140" s="376"/>
-      <c r="M140" s="376"/>
-      <c r="N140" s="376"/>
-      <c r="O140" s="377"/>
-    </row>
-    <row r="141" spans="1:15" ht="9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D140" s="225"/>
+      <c r="E140" s="225"/>
+      <c r="F140" s="225"/>
+      <c r="G140" s="225"/>
+      <c r="H140" s="225"/>
+      <c r="I140" s="225"/>
+      <c r="J140" s="225"/>
+      <c r="K140" s="225"/>
+      <c r="L140" s="225"/>
+      <c r="M140" s="225"/>
+      <c r="N140" s="225"/>
+      <c r="O140" s="226"/>
+    </row>
+    <row r="141" spans="1:15" ht="9" customHeight="1" thickTop="1"/>
+    <row r="142" spans="1:15">
       <c r="A142" s="107" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J144" s="364" t="s">
+    <row r="144" spans="1:15" ht="26.25" customHeight="1" thickBot="1">
+      <c r="J144" s="209" t="s">
         <v>40</v>
       </c>
-      <c r="K144" s="364"/>
-      <c r="L144" s="363" t="s">
+      <c r="K144" s="209"/>
+      <c r="L144" s="208" t="s">
         <v>205</v>
       </c>
-      <c r="M144" s="363"/>
-      <c r="N144" s="363"/>
-      <c r="O144" s="363"/>
-    </row>
-    <row r="145" spans="1:15" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M144" s="208"/>
+      <c r="N144" s="208"/>
+      <c r="O144" s="208"/>
+    </row>
+    <row r="145" spans="1:15" ht="6.75" customHeight="1" thickTop="1"/>
+    <row r="146" spans="1:15">
       <c r="A146" s="108" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15">
       <c r="A147" s="108" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="149" spans="1:15" ht="20" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="135" t="s">
+    <row r="148" spans="1:15" ht="16.5" thickBot="1"/>
+    <row r="149" spans="1:15" ht="16.5" thickTop="1">
+      <c r="A149" s="166" t="s">
         <v>43</v>
       </c>
       <c r="B149" s="109" t="s">
@@ -8787,8 +8860,8 @@
       <c r="N149" s="110"/>
       <c r="O149" s="111"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A150" s="136"/>
+    <row r="150" spans="1:15">
+      <c r="A150" s="167"/>
       <c r="B150" s="26" t="s">
         <v>28</v>
       </c>
@@ -8808,8 +8881,8 @@
       <c r="N150" s="79"/>
       <c r="O150" s="98"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A151" s="136"/>
+    <row r="151" spans="1:15">
+      <c r="A151" s="167"/>
       <c r="B151" s="26" t="s">
         <v>28</v>
       </c>
@@ -8829,27 +8902,27 @@
       <c r="N151" s="79"/>
       <c r="O151" s="98"/>
     </row>
-    <row r="152" spans="1:15" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="136"/>
+    <row r="152" spans="1:15" ht="33.6" customHeight="1">
+      <c r="A152" s="167"/>
       <c r="B152" s="79"/>
-      <c r="C152" s="354" t="s">
+      <c r="C152" s="199" t="s">
         <v>45</v>
       </c>
-      <c r="D152" s="354"/>
-      <c r="E152" s="354"/>
-      <c r="F152" s="354"/>
-      <c r="G152" s="354"/>
-      <c r="H152" s="354"/>
-      <c r="I152" s="354"/>
-      <c r="J152" s="354"/>
-      <c r="K152" s="354"/>
-      <c r="L152" s="354"/>
-      <c r="M152" s="354"/>
-      <c r="N152" s="354"/>
-      <c r="O152" s="355"/>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A153" s="136"/>
+      <c r="D152" s="199"/>
+      <c r="E152" s="199"/>
+      <c r="F152" s="199"/>
+      <c r="G152" s="199"/>
+      <c r="H152" s="199"/>
+      <c r="I152" s="199"/>
+      <c r="J152" s="199"/>
+      <c r="K152" s="199"/>
+      <c r="L152" s="199"/>
+      <c r="M152" s="199"/>
+      <c r="N152" s="199"/>
+      <c r="O152" s="200"/>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153" s="167"/>
       <c r="B153" s="26" t="s">
         <v>28</v>
       </c>
@@ -8869,44 +8942,44 @@
       <c r="N153" s="79"/>
       <c r="O153" s="98"/>
     </row>
-    <row r="154" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="136"/>
+    <row r="154" spans="1:15" ht="24" customHeight="1">
+      <c r="A154" s="167"/>
       <c r="B154" s="79"/>
-      <c r="C154" s="356" t="s">
+      <c r="C154" s="201" t="s">
         <v>203</v>
       </c>
-      <c r="D154" s="356"/>
-      <c r="E154" s="356"/>
-      <c r="F154" s="356"/>
-      <c r="G154" s="356"/>
-      <c r="H154" s="356"/>
-      <c r="I154" s="356"/>
-      <c r="J154" s="356"/>
-      <c r="K154" s="356"/>
-      <c r="L154" s="356"/>
-      <c r="M154" s="356"/>
-      <c r="N154" s="356"/>
-      <c r="O154" s="357"/>
-    </row>
-    <row r="155" spans="1:15" ht="19.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="136"/>
+      <c r="D154" s="201"/>
+      <c r="E154" s="201"/>
+      <c r="F154" s="201"/>
+      <c r="G154" s="201"/>
+      <c r="H154" s="201"/>
+      <c r="I154" s="201"/>
+      <c r="J154" s="201"/>
+      <c r="K154" s="201"/>
+      <c r="L154" s="201"/>
+      <c r="M154" s="201"/>
+      <c r="N154" s="201"/>
+      <c r="O154" s="202"/>
+    </row>
+    <row r="155" spans="1:15" ht="19.350000000000001" customHeight="1">
+      <c r="A155" s="167"/>
       <c r="B155" s="79"/>
-      <c r="C155" s="356"/>
-      <c r="D155" s="356"/>
-      <c r="E155" s="356"/>
-      <c r="F155" s="356"/>
-      <c r="G155" s="356"/>
-      <c r="H155" s="356"/>
-      <c r="I155" s="356"/>
-      <c r="J155" s="356"/>
-      <c r="K155" s="356"/>
-      <c r="L155" s="356"/>
-      <c r="M155" s="356"/>
-      <c r="N155" s="356"/>
-      <c r="O155" s="357"/>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A156" s="136"/>
+      <c r="C155" s="201"/>
+      <c r="D155" s="201"/>
+      <c r="E155" s="201"/>
+      <c r="F155" s="201"/>
+      <c r="G155" s="201"/>
+      <c r="H155" s="201"/>
+      <c r="I155" s="201"/>
+      <c r="J155" s="201"/>
+      <c r="K155" s="201"/>
+      <c r="L155" s="201"/>
+      <c r="M155" s="201"/>
+      <c r="N155" s="201"/>
+      <c r="O155" s="202"/>
+    </row>
+    <row r="156" spans="1:15">
+      <c r="A156" s="167"/>
       <c r="B156" s="26" t="s">
         <v>28</v>
       </c>
@@ -8926,8 +8999,8 @@
       <c r="N156" s="79"/>
       <c r="O156" s="98"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A157" s="136"/>
+    <row r="157" spans="1:15">
+      <c r="A157" s="167"/>
       <c r="B157" s="26" t="s">
         <v>28</v>
       </c>
@@ -8947,8 +9020,8 @@
       <c r="N157" s="79"/>
       <c r="O157" s="98"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A158" s="136"/>
+    <row r="158" spans="1:15">
+      <c r="A158" s="167"/>
       <c r="B158" s="26" t="s">
         <v>231</v>
       </c>
@@ -8968,8 +9041,8 @@
       <c r="N158" s="79"/>
       <c r="O158" s="98"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A159" s="136"/>
+    <row r="159" spans="1:15">
+      <c r="A159" s="167"/>
       <c r="B159" s="26" t="s">
         <v>1</v>
       </c>
@@ -8989,8 +9062,8 @@
       <c r="N159" s="79"/>
       <c r="O159" s="98"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A160" s="136"/>
+    <row r="160" spans="1:15">
+      <c r="A160" s="167"/>
       <c r="B160" s="26" t="s">
         <v>1</v>
       </c>
@@ -9010,8 +9083,8 @@
       <c r="N160" s="79"/>
       <c r="O160" s="98"/>
     </row>
-    <row r="161" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="151"/>
+    <row r="161" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A161" s="168"/>
       <c r="B161" s="27" t="s">
         <v>1</v>
       </c>
@@ -9031,8 +9104,8 @@
       <c r="N161" s="100"/>
       <c r="O161" s="112"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A162" s="150" t="s">
+    <row r="162" spans="1:15">
+      <c r="A162" s="179" t="s">
         <v>52</v>
       </c>
       <c r="B162" s="113" t="s">
@@ -9052,134 +9125,134 @@
       <c r="N162" s="79"/>
       <c r="O162" s="98"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A163" s="136"/>
+    <row r="163" spans="1:15">
+      <c r="A163" s="167"/>
       <c r="B163" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="C163" s="174" t="s">
+      <c r="C163" s="380" t="s">
         <v>65</v>
       </c>
-      <c r="D163" s="174"/>
-      <c r="E163" s="174"/>
-      <c r="F163" s="174"/>
-      <c r="G163" s="174"/>
-      <c r="H163" s="174"/>
-      <c r="I163" s="174"/>
-      <c r="J163" s="174"/>
-      <c r="K163" s="174"/>
-      <c r="L163" s="174"/>
-      <c r="M163" s="174"/>
-      <c r="N163" s="174"/>
-      <c r="O163" s="175"/>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A164" s="136"/>
+      <c r="D163" s="380"/>
+      <c r="E163" s="380"/>
+      <c r="F163" s="380"/>
+      <c r="G163" s="380"/>
+      <c r="H163" s="380"/>
+      <c r="I163" s="380"/>
+      <c r="J163" s="380"/>
+      <c r="K163" s="380"/>
+      <c r="L163" s="380"/>
+      <c r="M163" s="380"/>
+      <c r="N163" s="380"/>
+      <c r="O163" s="381"/>
+    </row>
+    <row r="164" spans="1:15">
+      <c r="A164" s="167"/>
       <c r="B164" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C164" s="174" t="s">
+      <c r="C164" s="380" t="s">
         <v>66</v>
       </c>
-      <c r="D164" s="174"/>
-      <c r="E164" s="174"/>
-      <c r="F164" s="174"/>
-      <c r="G164" s="174"/>
-      <c r="H164" s="174"/>
-      <c r="I164" s="174"/>
-      <c r="J164" s="174"/>
-      <c r="K164" s="174"/>
-      <c r="L164" s="174"/>
-      <c r="M164" s="174"/>
-      <c r="N164" s="174"/>
-      <c r="O164" s="175"/>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A165" s="136"/>
+      <c r="D164" s="380"/>
+      <c r="E164" s="380"/>
+      <c r="F164" s="380"/>
+      <c r="G164" s="380"/>
+      <c r="H164" s="380"/>
+      <c r="I164" s="380"/>
+      <c r="J164" s="380"/>
+      <c r="K164" s="380"/>
+      <c r="L164" s="380"/>
+      <c r="M164" s="380"/>
+      <c r="N164" s="380"/>
+      <c r="O164" s="381"/>
+    </row>
+    <row r="165" spans="1:15">
+      <c r="A165" s="167"/>
       <c r="B165" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C165" s="174" t="s">
+      <c r="C165" s="380" t="s">
         <v>67</v>
       </c>
-      <c r="D165" s="174"/>
-      <c r="E165" s="174"/>
-      <c r="F165" s="174"/>
-      <c r="G165" s="174"/>
-      <c r="H165" s="174"/>
-      <c r="I165" s="174"/>
-      <c r="J165" s="174"/>
-      <c r="K165" s="174"/>
-      <c r="L165" s="174"/>
-      <c r="M165" s="174"/>
-      <c r="N165" s="174"/>
-      <c r="O165" s="175"/>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A166" s="136"/>
+      <c r="D165" s="380"/>
+      <c r="E165" s="380"/>
+      <c r="F165" s="380"/>
+      <c r="G165" s="380"/>
+      <c r="H165" s="380"/>
+      <c r="I165" s="380"/>
+      <c r="J165" s="380"/>
+      <c r="K165" s="380"/>
+      <c r="L165" s="380"/>
+      <c r="M165" s="380"/>
+      <c r="N165" s="380"/>
+      <c r="O165" s="381"/>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="A166" s="167"/>
       <c r="B166" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C166" s="174" t="s">
+      <c r="C166" s="380" t="s">
         <v>68</v>
       </c>
-      <c r="D166" s="174"/>
-      <c r="E166" s="174"/>
-      <c r="F166" s="174"/>
-      <c r="G166" s="174"/>
-      <c r="H166" s="174"/>
-      <c r="I166" s="174"/>
-      <c r="J166" s="174"/>
-      <c r="K166" s="174"/>
-      <c r="L166" s="174"/>
-      <c r="M166" s="174"/>
-      <c r="N166" s="174"/>
-      <c r="O166" s="175"/>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A167" s="136"/>
+      <c r="D166" s="380"/>
+      <c r="E166" s="380"/>
+      <c r="F166" s="380"/>
+      <c r="G166" s="380"/>
+      <c r="H166" s="380"/>
+      <c r="I166" s="380"/>
+      <c r="J166" s="380"/>
+      <c r="K166" s="380"/>
+      <c r="L166" s="380"/>
+      <c r="M166" s="380"/>
+      <c r="N166" s="380"/>
+      <c r="O166" s="381"/>
+    </row>
+    <row r="167" spans="1:15">
+      <c r="A167" s="167"/>
       <c r="B167" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C167" s="174" t="s">
+      <c r="C167" s="380" t="s">
         <v>84</v>
       </c>
-      <c r="D167" s="174"/>
-      <c r="E167" s="174"/>
-      <c r="F167" s="174"/>
-      <c r="G167" s="174"/>
-      <c r="H167" s="174"/>
-      <c r="I167" s="174"/>
-      <c r="J167" s="174"/>
-      <c r="K167" s="174"/>
-      <c r="L167" s="174"/>
-      <c r="M167" s="174"/>
-      <c r="N167" s="174"/>
-      <c r="O167" s="175"/>
-    </row>
-    <row r="168" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="151"/>
+      <c r="D167" s="380"/>
+      <c r="E167" s="380"/>
+      <c r="F167" s="380"/>
+      <c r="G167" s="380"/>
+      <c r="H167" s="380"/>
+      <c r="I167" s="380"/>
+      <c r="J167" s="380"/>
+      <c r="K167" s="380"/>
+      <c r="L167" s="380"/>
+      <c r="M167" s="380"/>
+      <c r="N167" s="380"/>
+      <c r="O167" s="381"/>
+    </row>
+    <row r="168" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A168" s="168"/>
       <c r="B168" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C168" s="176" t="s">
+      <c r="C168" s="382" t="s">
         <v>69</v>
       </c>
-      <c r="D168" s="176"/>
-      <c r="E168" s="176"/>
-      <c r="F168" s="176"/>
-      <c r="G168" s="176"/>
-      <c r="H168" s="176"/>
-      <c r="I168" s="176"/>
-      <c r="J168" s="176"/>
-      <c r="K168" s="176"/>
-      <c r="L168" s="176"/>
-      <c r="M168" s="176"/>
-      <c r="N168" s="176"/>
-      <c r="O168" s="177"/>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A169" s="150" t="s">
+      <c r="D168" s="382"/>
+      <c r="E168" s="382"/>
+      <c r="F168" s="382"/>
+      <c r="G168" s="382"/>
+      <c r="H168" s="382"/>
+      <c r="I168" s="382"/>
+      <c r="J168" s="382"/>
+      <c r="K168" s="382"/>
+      <c r="L168" s="382"/>
+      <c r="M168" s="382"/>
+      <c r="N168" s="382"/>
+      <c r="O168" s="383"/>
+    </row>
+    <row r="169" spans="1:15">
+      <c r="A169" s="179" t="s">
         <v>87</v>
       </c>
       <c r="B169" s="113" t="s">
@@ -9199,92 +9272,92 @@
       <c r="N169" s="84"/>
       <c r="O169" s="80"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A170" s="136"/>
+    <row r="170" spans="1:15">
+      <c r="A170" s="167"/>
       <c r="B170" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C170" s="174" t="s">
+      <c r="C170" s="380" t="s">
         <v>70</v>
       </c>
-      <c r="D170" s="174"/>
-      <c r="E170" s="174"/>
-      <c r="F170" s="174"/>
-      <c r="G170" s="174"/>
-      <c r="H170" s="174"/>
-      <c r="I170" s="174"/>
-      <c r="J170" s="174"/>
-      <c r="K170" s="174"/>
-      <c r="L170" s="174"/>
-      <c r="M170" s="174"/>
-      <c r="N170" s="174"/>
-      <c r="O170" s="175"/>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A171" s="136"/>
+      <c r="D170" s="380"/>
+      <c r="E170" s="380"/>
+      <c r="F170" s="380"/>
+      <c r="G170" s="380"/>
+      <c r="H170" s="380"/>
+      <c r="I170" s="380"/>
+      <c r="J170" s="380"/>
+      <c r="K170" s="380"/>
+      <c r="L170" s="380"/>
+      <c r="M170" s="380"/>
+      <c r="N170" s="380"/>
+      <c r="O170" s="381"/>
+    </row>
+    <row r="171" spans="1:15">
+      <c r="A171" s="167"/>
       <c r="B171" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C171" s="174" t="s">
+      <c r="C171" s="380" t="s">
         <v>88</v>
       </c>
-      <c r="D171" s="174"/>
-      <c r="E171" s="174"/>
-      <c r="F171" s="174"/>
-      <c r="G171" s="174"/>
-      <c r="H171" s="174"/>
-      <c r="I171" s="174"/>
-      <c r="J171" s="174"/>
-      <c r="K171" s="174"/>
-      <c r="L171" s="174"/>
-      <c r="M171" s="174"/>
-      <c r="N171" s="174"/>
-      <c r="O171" s="175"/>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A172" s="136"/>
+      <c r="D171" s="380"/>
+      <c r="E171" s="380"/>
+      <c r="F171" s="380"/>
+      <c r="G171" s="380"/>
+      <c r="H171" s="380"/>
+      <c r="I171" s="380"/>
+      <c r="J171" s="380"/>
+      <c r="K171" s="380"/>
+      <c r="L171" s="380"/>
+      <c r="M171" s="380"/>
+      <c r="N171" s="380"/>
+      <c r="O171" s="381"/>
+    </row>
+    <row r="172" spans="1:15">
+      <c r="A172" s="167"/>
       <c r="B172" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="C172" s="174" t="s">
+      <c r="C172" s="380" t="s">
         <v>129</v>
       </c>
-      <c r="D172" s="174"/>
-      <c r="E172" s="174"/>
-      <c r="F172" s="174"/>
-      <c r="G172" s="174"/>
-      <c r="H172" s="174"/>
-      <c r="I172" s="174"/>
-      <c r="J172" s="174"/>
-      <c r="K172" s="174"/>
-      <c r="L172" s="174"/>
-      <c r="M172" s="174"/>
-      <c r="N172" s="174"/>
-      <c r="O172" s="175"/>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A173" s="136"/>
+      <c r="D172" s="380"/>
+      <c r="E172" s="380"/>
+      <c r="F172" s="380"/>
+      <c r="G172" s="380"/>
+      <c r="H172" s="380"/>
+      <c r="I172" s="380"/>
+      <c r="J172" s="380"/>
+      <c r="K172" s="380"/>
+      <c r="L172" s="380"/>
+      <c r="M172" s="380"/>
+      <c r="N172" s="380"/>
+      <c r="O172" s="381"/>
+    </row>
+    <row r="173" spans="1:15">
+      <c r="A173" s="167"/>
       <c r="B173" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C173" s="174" t="s">
+      <c r="C173" s="380" t="s">
         <v>93</v>
       </c>
-      <c r="D173" s="174"/>
-      <c r="E173" s="174"/>
-      <c r="F173" s="174"/>
-      <c r="G173" s="174"/>
-      <c r="H173" s="174"/>
-      <c r="I173" s="174"/>
-      <c r="J173" s="174"/>
-      <c r="K173" s="174"/>
-      <c r="L173" s="174"/>
-      <c r="M173" s="174"/>
-      <c r="N173" s="174"/>
-      <c r="O173" s="175"/>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A174" s="136"/>
+      <c r="D173" s="380"/>
+      <c r="E173" s="380"/>
+      <c r="F173" s="380"/>
+      <c r="G173" s="380"/>
+      <c r="H173" s="380"/>
+      <c r="I173" s="380"/>
+      <c r="J173" s="380"/>
+      <c r="K173" s="380"/>
+      <c r="L173" s="380"/>
+      <c r="M173" s="380"/>
+      <c r="N173" s="380"/>
+      <c r="O173" s="381"/>
+    </row>
+    <row r="174" spans="1:15">
+      <c r="A174" s="167"/>
       <c r="B174" s="26" t="s">
         <v>28</v>
       </c>
@@ -9304,151 +9377,151 @@
       <c r="N174" s="79"/>
       <c r="O174" s="98"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A175" s="136"/>
+    <row r="175" spans="1:15">
+      <c r="A175" s="167"/>
       <c r="B175" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C175" s="174" t="s">
+      <c r="C175" s="380" t="s">
         <v>71</v>
       </c>
-      <c r="D175" s="174"/>
-      <c r="E175" s="174"/>
-      <c r="F175" s="174"/>
-      <c r="G175" s="174"/>
-      <c r="H175" s="174"/>
-      <c r="I175" s="174"/>
-      <c r="J175" s="174"/>
-      <c r="K175" s="174"/>
-      <c r="L175" s="174"/>
-      <c r="M175" s="174"/>
-      <c r="N175" s="174"/>
-      <c r="O175" s="175"/>
-    </row>
-    <row r="176" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="151"/>
+      <c r="D175" s="380"/>
+      <c r="E175" s="380"/>
+      <c r="F175" s="380"/>
+      <c r="G175" s="380"/>
+      <c r="H175" s="380"/>
+      <c r="I175" s="380"/>
+      <c r="J175" s="380"/>
+      <c r="K175" s="380"/>
+      <c r="L175" s="380"/>
+      <c r="M175" s="380"/>
+      <c r="N175" s="380"/>
+      <c r="O175" s="381"/>
+    </row>
+    <row r="176" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A176" s="168"/>
       <c r="B176" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C176" s="176" t="s">
+      <c r="C176" s="382" t="s">
         <v>69</v>
       </c>
-      <c r="D176" s="176"/>
-      <c r="E176" s="176"/>
-      <c r="F176" s="176"/>
-      <c r="G176" s="176"/>
-      <c r="H176" s="176"/>
-      <c r="I176" s="176"/>
-      <c r="J176" s="176"/>
-      <c r="K176" s="176"/>
-      <c r="L176" s="176"/>
-      <c r="M176" s="176"/>
-      <c r="N176" s="176"/>
-      <c r="O176" s="177"/>
-    </row>
-    <row r="177" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="167" t="s">
+      <c r="D176" s="382"/>
+      <c r="E176" s="382"/>
+      <c r="F176" s="382"/>
+      <c r="G176" s="382"/>
+      <c r="H176" s="382"/>
+      <c r="I176" s="382"/>
+      <c r="J176" s="382"/>
+      <c r="K176" s="382"/>
+      <c r="L176" s="382"/>
+      <c r="M176" s="382"/>
+      <c r="N176" s="382"/>
+      <c r="O176" s="383"/>
+    </row>
+    <row r="177" spans="1:15" ht="28.5" customHeight="1">
+      <c r="A177" s="376" t="s">
         <v>86</v>
       </c>
-      <c r="B177" s="169" t="s">
+      <c r="B177" s="406" t="s">
         <v>199</v>
       </c>
-      <c r="C177" s="170"/>
-      <c r="D177" s="170"/>
-      <c r="E177" s="170"/>
-      <c r="F177" s="170"/>
-      <c r="G177" s="170"/>
-      <c r="H177" s="170"/>
-      <c r="I177" s="170"/>
-      <c r="J177" s="170"/>
-      <c r="K177" s="170"/>
-      <c r="L177" s="170"/>
-      <c r="M177" s="170"/>
-      <c r="N177" s="170"/>
-      <c r="O177" s="171"/>
-    </row>
-    <row r="178" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="168"/>
-      <c r="B178" s="172" t="s">
+      <c r="C177" s="407"/>
+      <c r="D177" s="407"/>
+      <c r="E177" s="407"/>
+      <c r="F177" s="407"/>
+      <c r="G177" s="407"/>
+      <c r="H177" s="407"/>
+      <c r="I177" s="407"/>
+      <c r="J177" s="407"/>
+      <c r="K177" s="407"/>
+      <c r="L177" s="407"/>
+      <c r="M177" s="407"/>
+      <c r="N177" s="407"/>
+      <c r="O177" s="408"/>
+    </row>
+    <row r="178" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A178" s="267"/>
+      <c r="B178" s="409" t="s">
         <v>200</v>
       </c>
-      <c r="C178" s="173"/>
-      <c r="D178" s="173"/>
-      <c r="E178" s="173"/>
-      <c r="F178" s="173"/>
-      <c r="G178" s="173"/>
-      <c r="H178" s="173"/>
-      <c r="I178" s="173"/>
-      <c r="J178" s="173"/>
-      <c r="K178" s="173"/>
-      <c r="L178" s="173"/>
-      <c r="M178" s="173"/>
-      <c r="N178" s="173"/>
+      <c r="C178" s="410"/>
+      <c r="D178" s="410"/>
+      <c r="E178" s="410"/>
+      <c r="F178" s="410"/>
+      <c r="G178" s="410"/>
+      <c r="H178" s="410"/>
+      <c r="I178" s="410"/>
+      <c r="J178" s="410"/>
+      <c r="K178" s="410"/>
+      <c r="L178" s="410"/>
+      <c r="M178" s="410"/>
+      <c r="N178" s="410"/>
       <c r="O178" s="114"/>
     </row>
-    <row r="179" spans="1:15" ht="5.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="167" t="s">
+    <row r="179" spans="1:15" ht="5.85" customHeight="1">
+      <c r="A179" s="376" t="s">
         <v>97</v>
       </c>
-      <c r="B179" s="409" t="s">
+      <c r="B179" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="C179" s="410"/>
-      <c r="D179" s="410"/>
-      <c r="E179" s="410"/>
-      <c r="F179" s="410"/>
-      <c r="G179" s="410"/>
-      <c r="H179" s="410"/>
-      <c r="I179" s="410"/>
-      <c r="J179" s="410"/>
-      <c r="K179" s="410"/>
-      <c r="L179" s="410"/>
-      <c r="M179" s="410"/>
-      <c r="N179" s="410"/>
-      <c r="O179" s="411"/>
-    </row>
-    <row r="180" spans="1:15" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="188"/>
-      <c r="B180" s="345" t="s">
+      <c r="C179" s="161"/>
+      <c r="D179" s="161"/>
+      <c r="E179" s="161"/>
+      <c r="F179" s="161"/>
+      <c r="G179" s="161"/>
+      <c r="H179" s="161"/>
+      <c r="I179" s="161"/>
+      <c r="J179" s="161"/>
+      <c r="K179" s="161"/>
+      <c r="L179" s="161"/>
+      <c r="M179" s="161"/>
+      <c r="N179" s="161"/>
+      <c r="O179" s="162"/>
+    </row>
+    <row r="180" spans="1:15" ht="30.6" customHeight="1">
+      <c r="A180" s="377"/>
+      <c r="B180" s="163" t="s">
         <v>131</v>
       </c>
-      <c r="C180" s="144"/>
-      <c r="D180" s="144"/>
-      <c r="E180" s="144"/>
-      <c r="F180" s="144"/>
-      <c r="G180" s="144"/>
-      <c r="H180" s="144"/>
-      <c r="I180" s="144"/>
-      <c r="J180" s="144"/>
-      <c r="K180" s="144"/>
-      <c r="L180" s="144"/>
-      <c r="M180" s="144"/>
-      <c r="N180" s="144"/>
-      <c r="O180" s="412"/>
-    </row>
-    <row r="181" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="188"/>
+      <c r="C180" s="164"/>
+      <c r="D180" s="164"/>
+      <c r="E180" s="164"/>
+      <c r="F180" s="164"/>
+      <c r="G180" s="164"/>
+      <c r="H180" s="164"/>
+      <c r="I180" s="164"/>
+      <c r="J180" s="164"/>
+      <c r="K180" s="164"/>
+      <c r="L180" s="164"/>
+      <c r="M180" s="164"/>
+      <c r="N180" s="164"/>
+      <c r="O180" s="165"/>
+    </row>
+    <row r="181" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A181" s="377"/>
       <c r="B181" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="C181" s="399" t="s">
+      <c r="C181" s="145" t="s">
         <v>192</v>
       </c>
-      <c r="D181" s="399"/>
-      <c r="E181" s="399"/>
-      <c r="F181" s="399"/>
-      <c r="G181" s="399"/>
-      <c r="H181" s="399"/>
-      <c r="I181" s="399"/>
-      <c r="J181" s="399"/>
-      <c r="K181" s="399"/>
-      <c r="L181" s="399"/>
-      <c r="M181" s="399"/>
-      <c r="N181" s="399"/>
-      <c r="O181" s="400"/>
-    </row>
-    <row r="182" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="168"/>
+      <c r="D181" s="145"/>
+      <c r="E181" s="145"/>
+      <c r="F181" s="145"/>
+      <c r="G181" s="145"/>
+      <c r="H181" s="145"/>
+      <c r="I181" s="145"/>
+      <c r="J181" s="145"/>
+      <c r="K181" s="145"/>
+      <c r="L181" s="145"/>
+      <c r="M181" s="145"/>
+      <c r="N181" s="145"/>
+      <c r="O181" s="146"/>
+    </row>
+    <row r="182" spans="1:15" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A182" s="267"/>
       <c r="B182" s="29" t="s">
         <v>204</v>
       </c>
@@ -9461,88 +9534,88 @@
       <c r="G182" s="117" t="s">
         <v>194</v>
       </c>
-      <c r="H182" s="401"/>
-      <c r="I182" s="402"/>
-      <c r="J182" s="402"/>
-      <c r="K182" s="402"/>
-      <c r="L182" s="402"/>
-      <c r="M182" s="402"/>
-      <c r="N182" s="402"/>
+      <c r="H182" s="147"/>
+      <c r="I182" s="148"/>
+      <c r="J182" s="148"/>
+      <c r="K182" s="148"/>
+      <c r="L182" s="148"/>
+      <c r="M182" s="148"/>
+      <c r="N182" s="148"/>
       <c r="O182" s="118" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A183" s="396" t="s">
+    <row r="183" spans="1:15" ht="18.75">
+      <c r="A183" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="B183" s="397"/>
-      <c r="C183" s="397"/>
-      <c r="D183" s="397"/>
-      <c r="E183" s="397"/>
-      <c r="F183" s="397"/>
-      <c r="G183" s="397"/>
-      <c r="H183" s="397"/>
-      <c r="I183" s="397"/>
-      <c r="J183" s="397"/>
-      <c r="K183" s="397"/>
-      <c r="L183" s="397"/>
-      <c r="M183" s="397"/>
-      <c r="N183" s="397"/>
-      <c r="O183" s="398"/>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A184" s="389"/>
-      <c r="B184" s="390"/>
-      <c r="C184" s="390"/>
-      <c r="D184" s="390"/>
-      <c r="E184" s="390"/>
-      <c r="F184" s="390"/>
-      <c r="G184" s="390"/>
-      <c r="H184" s="390"/>
-      <c r="I184" s="390"/>
-      <c r="J184" s="390"/>
-      <c r="K184" s="390"/>
-      <c r="L184" s="390"/>
-      <c r="M184" s="390"/>
-      <c r="N184" s="390"/>
-      <c r="O184" s="391"/>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A185" s="392"/>
-      <c r="B185" s="390"/>
-      <c r="C185" s="390"/>
-      <c r="D185" s="390"/>
-      <c r="E185" s="390"/>
-      <c r="F185" s="390"/>
-      <c r="G185" s="390"/>
-      <c r="H185" s="390"/>
-      <c r="I185" s="390"/>
-      <c r="J185" s="390"/>
-      <c r="K185" s="390"/>
-      <c r="L185" s="390"/>
-      <c r="M185" s="390"/>
-      <c r="N185" s="390"/>
-      <c r="O185" s="391"/>
-    </row>
-    <row r="186" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="393"/>
-      <c r="B186" s="394"/>
-      <c r="C186" s="394"/>
-      <c r="D186" s="394"/>
-      <c r="E186" s="394"/>
-      <c r="F186" s="394"/>
-      <c r="G186" s="394"/>
-      <c r="H186" s="394"/>
-      <c r="I186" s="394"/>
-      <c r="J186" s="394"/>
-      <c r="K186" s="394"/>
-      <c r="L186" s="394"/>
-      <c r="M186" s="394"/>
-      <c r="N186" s="394"/>
-      <c r="O186" s="395"/>
-    </row>
-    <row r="187" spans="1:15" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="143"/>
+      <c r="C183" s="143"/>
+      <c r="D183" s="143"/>
+      <c r="E183" s="143"/>
+      <c r="F183" s="143"/>
+      <c r="G183" s="143"/>
+      <c r="H183" s="143"/>
+      <c r="I183" s="143"/>
+      <c r="J183" s="143"/>
+      <c r="K183" s="143"/>
+      <c r="L183" s="143"/>
+      <c r="M183" s="143"/>
+      <c r="N183" s="143"/>
+      <c r="O183" s="144"/>
+    </row>
+    <row r="184" spans="1:15">
+      <c r="A184" s="135"/>
+      <c r="B184" s="136"/>
+      <c r="C184" s="136"/>
+      <c r="D184" s="136"/>
+      <c r="E184" s="136"/>
+      <c r="F184" s="136"/>
+      <c r="G184" s="136"/>
+      <c r="H184" s="136"/>
+      <c r="I184" s="136"/>
+      <c r="J184" s="136"/>
+      <c r="K184" s="136"/>
+      <c r="L184" s="136"/>
+      <c r="M184" s="136"/>
+      <c r="N184" s="136"/>
+      <c r="O184" s="137"/>
+    </row>
+    <row r="185" spans="1:15">
+      <c r="A185" s="138"/>
+      <c r="B185" s="136"/>
+      <c r="C185" s="136"/>
+      <c r="D185" s="136"/>
+      <c r="E185" s="136"/>
+      <c r="F185" s="136"/>
+      <c r="G185" s="136"/>
+      <c r="H185" s="136"/>
+      <c r="I185" s="136"/>
+      <c r="J185" s="136"/>
+      <c r="K185" s="136"/>
+      <c r="L185" s="136"/>
+      <c r="M185" s="136"/>
+      <c r="N185" s="136"/>
+      <c r="O185" s="137"/>
+    </row>
+    <row r="186" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A186" s="139"/>
+      <c r="B186" s="140"/>
+      <c r="C186" s="140"/>
+      <c r="D186" s="140"/>
+      <c r="E186" s="140"/>
+      <c r="F186" s="140"/>
+      <c r="G186" s="140"/>
+      <c r="H186" s="140"/>
+      <c r="I186" s="140"/>
+      <c r="J186" s="140"/>
+      <c r="K186" s="140"/>
+      <c r="L186" s="140"/>
+      <c r="M186" s="140"/>
+      <c r="N186" s="140"/>
+      <c r="O186" s="141"/>
+    </row>
+    <row r="187" spans="1:15" ht="16.5" thickTop="1">
       <c r="A187" s="119" t="s">
         <v>55</v>
       </c>
@@ -9561,7 +9634,7 @@
       <c r="N187" s="120"/>
       <c r="O187" s="120"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15">
       <c r="A188" s="119" t="s">
         <v>59</v>
       </c>
@@ -9580,7 +9653,7 @@
       <c r="N188" s="119"/>
       <c r="O188" s="119"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15">
       <c r="A189" s="119" t="s">
         <v>102</v>
       </c>
@@ -9599,7 +9672,7 @@
       <c r="N189" s="119"/>
       <c r="O189" s="119"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15">
       <c r="A190" s="119" t="s">
         <v>60</v>
       </c>
@@ -9618,7 +9691,7 @@
       <c r="N190" s="119"/>
       <c r="O190" s="119"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15">
       <c r="A191" s="121"/>
       <c r="B191" s="120"/>
       <c r="C191" s="120"/>
@@ -9635,7 +9708,7 @@
       <c r="N191" s="120"/>
       <c r="O191" s="120"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15">
       <c r="A192" s="121"/>
       <c r="B192" s="120"/>
       <c r="C192" s="120"/>
@@ -9652,7 +9725,7 @@
       <c r="N192" s="120"/>
       <c r="O192" s="120"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15">
       <c r="A193" s="122" t="s">
         <v>56</v>
       </c>
@@ -9671,7 +9744,7 @@
       <c r="N193" s="123"/>
       <c r="O193" s="124"/>
     </row>
-    <row r="194" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" ht="4.5" customHeight="1">
       <c r="A194" s="125"/>
       <c r="B194" s="133"/>
       <c r="C194" s="133"/>
@@ -9688,7 +9761,7 @@
       <c r="N194" s="133"/>
       <c r="O194" s="126"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15">
       <c r="A195" s="125" t="s">
         <v>57</v>
       </c>
@@ -9707,7 +9780,7 @@
       <c r="N195" s="133"/>
       <c r="O195" s="126"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15">
       <c r="A196" s="125" t="s">
         <v>58</v>
       </c>
@@ -9726,7 +9799,7 @@
       <c r="N196" s="133"/>
       <c r="O196" s="126"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15">
       <c r="A197" s="125"/>
       <c r="B197" s="133" t="s">
         <v>61</v>
@@ -9745,7 +9818,7 @@
       <c r="N197" s="133"/>
       <c r="O197" s="126"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15">
       <c r="A198" s="125"/>
       <c r="B198" s="133" t="s">
         <v>62</v>
@@ -9764,7 +9837,7 @@
       <c r="N198" s="133"/>
       <c r="O198" s="126"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15">
       <c r="A199" s="125"/>
       <c r="B199" s="133" t="s">
         <v>63</v>
@@ -9783,7 +9856,7 @@
       <c r="N199" s="133"/>
       <c r="O199" s="126"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15">
       <c r="A200" s="125"/>
       <c r="B200" s="134" t="s">
         <v>64</v>
@@ -9802,7 +9875,7 @@
       <c r="N200" s="133"/>
       <c r="O200" s="126"/>
     </row>
-    <row r="201" spans="1:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" ht="5.25" customHeight="1">
       <c r="A201" s="127"/>
       <c r="B201" s="128"/>
       <c r="C201" s="128"/>
@@ -9825,6 +9898,197 @@
     <protectedRange password="CAED" sqref="B118:O137" name="範囲1"/>
   </protectedRanges>
   <mergeCells count="215">
+    <mergeCell ref="A118:A130"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="E24:N24"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="B138:O138"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="F29:N29"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A131:A140"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="B56:C57"/>
+    <mergeCell ref="C44:N44"/>
+    <mergeCell ref="D56:O57"/>
+    <mergeCell ref="D71:N71"/>
+    <mergeCell ref="D72:N72"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B177:O177"/>
+    <mergeCell ref="B178:N178"/>
+    <mergeCell ref="A162:A168"/>
+    <mergeCell ref="A169:A176"/>
+    <mergeCell ref="C170:O170"/>
+    <mergeCell ref="C171:O171"/>
+    <mergeCell ref="C173:O173"/>
+    <mergeCell ref="C175:O175"/>
+    <mergeCell ref="C176:O176"/>
+    <mergeCell ref="C172:O172"/>
+    <mergeCell ref="C163:O163"/>
+    <mergeCell ref="C164:O164"/>
+    <mergeCell ref="C165:O165"/>
+    <mergeCell ref="C166:O166"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="J16:L18"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="B97:O97"/>
+    <mergeCell ref="B98:O100"/>
+    <mergeCell ref="C167:O167"/>
+    <mergeCell ref="C168:O168"/>
+    <mergeCell ref="B73:O73"/>
+    <mergeCell ref="A73:A78"/>
+    <mergeCell ref="J76:O76"/>
+    <mergeCell ref="J77:O77"/>
+    <mergeCell ref="J78:O78"/>
+    <mergeCell ref="B80:O83"/>
+    <mergeCell ref="B118:O130"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="B109:O112"/>
+    <mergeCell ref="B113:O116"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="D45:O45"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="B15:E18"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="D47:O47"/>
+    <mergeCell ref="F21:O21"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="E32:N32"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="F49:K49"/>
+    <mergeCell ref="F50:K50"/>
+    <mergeCell ref="B101:O101"/>
+    <mergeCell ref="B102:O104"/>
+    <mergeCell ref="B106:O108"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="B90:O92"/>
+    <mergeCell ref="J67:O67"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="E64:N64"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="F38:O38"/>
+    <mergeCell ref="F39:O39"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="F37:O37"/>
+    <mergeCell ref="F36:O36"/>
+    <mergeCell ref="F40:O40"/>
+    <mergeCell ref="F41:O41"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B25:O25"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="F48:K48"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="F35:O35"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="F42:O42"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="F43:O43"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C152:O152"/>
+    <mergeCell ref="C154:O155"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="D52:O52"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="B84:O84"/>
+    <mergeCell ref="B68:O68"/>
+    <mergeCell ref="B88:O88"/>
+    <mergeCell ref="B131:O137"/>
+    <mergeCell ref="C140:O140"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="D46:O46"/>
+    <mergeCell ref="H66:N66"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="B54:O54"/>
     <mergeCell ref="A184:O186"/>
     <mergeCell ref="A183:O183"/>
     <mergeCell ref="C181:O181"/>
@@ -9849,202 +10113,11 @@
     <mergeCell ref="A97:A108"/>
     <mergeCell ref="A109:A112"/>
     <mergeCell ref="A68:A72"/>
-    <mergeCell ref="F43:O43"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C152:O152"/>
-    <mergeCell ref="C154:O155"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="D52:O52"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="J144:K144"/>
-    <mergeCell ref="B84:O84"/>
-    <mergeCell ref="B68:O68"/>
-    <mergeCell ref="B88:O88"/>
-    <mergeCell ref="B131:O137"/>
-    <mergeCell ref="C140:O140"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="D46:O46"/>
-    <mergeCell ref="H66:N66"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="B54:O54"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B25:O25"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="F48:K48"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="F35:O35"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="F42:O42"/>
-    <mergeCell ref="B46:C47"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="F38:O38"/>
-    <mergeCell ref="F39:O39"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="F37:O37"/>
-    <mergeCell ref="F36:O36"/>
-    <mergeCell ref="F40:O40"/>
-    <mergeCell ref="F41:O41"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="A5:A13"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="B101:O101"/>
-    <mergeCell ref="B102:O104"/>
-    <mergeCell ref="B106:O108"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="B90:O92"/>
-    <mergeCell ref="J67:O67"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="E64:N64"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="D45:O45"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="B15:E18"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="D47:O47"/>
-    <mergeCell ref="F21:O21"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="E32:N32"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="B34:K34"/>
-    <mergeCell ref="F49:K49"/>
-    <mergeCell ref="F50:K50"/>
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="J16:L18"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="B97:O97"/>
-    <mergeCell ref="B98:O100"/>
-    <mergeCell ref="C167:O167"/>
-    <mergeCell ref="C168:O168"/>
-    <mergeCell ref="B73:O73"/>
-    <mergeCell ref="A73:A78"/>
-    <mergeCell ref="J76:O76"/>
-    <mergeCell ref="J77:O77"/>
-    <mergeCell ref="J78:O78"/>
-    <mergeCell ref="B80:O83"/>
-    <mergeCell ref="B118:O130"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="B109:O112"/>
-    <mergeCell ref="B113:O116"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B177:O177"/>
-    <mergeCell ref="B178:N178"/>
-    <mergeCell ref="A162:A168"/>
-    <mergeCell ref="A169:A176"/>
-    <mergeCell ref="C170:O170"/>
-    <mergeCell ref="C171:O171"/>
-    <mergeCell ref="C173:O173"/>
-    <mergeCell ref="C175:O175"/>
-    <mergeCell ref="C176:O176"/>
-    <mergeCell ref="C172:O172"/>
-    <mergeCell ref="C163:O163"/>
-    <mergeCell ref="C164:O164"/>
-    <mergeCell ref="C165:O165"/>
-    <mergeCell ref="C166:O166"/>
-    <mergeCell ref="A118:A130"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="E24:N24"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="B138:O138"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="F29:N29"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A131:A140"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="B56:C57"/>
-    <mergeCell ref="C44:N44"/>
-    <mergeCell ref="D56:O57"/>
-    <mergeCell ref="D71:N71"/>
-    <mergeCell ref="D72:N72"/>
-    <mergeCell ref="A93:A96"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="M17" r:id="rId1"/>
-    <hyperlink ref="H23" r:id="rId2"/>
+    <hyperlink ref="M17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H23" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.55118110236220474" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
